--- a/Document Library/Bill Of Materials/Valkyrie BOM RC-08.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM RC-08.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAD8FEE7-1DBB-4B74-939A-6D5AAEFFC455}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A50EC1D0-D101-4E1B-B4A2-91BA03E61D82}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Valkyrie Final Stage" sheetId="1" r:id="rId1"/>
+    <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
+    <sheet name="Valkyrie Stage-0" sheetId="6" r:id="rId2"/>
+    <sheet name="Valkyrie Final Stage - WIP" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Final Stage'!$A$9:$N$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Valkyrie Final Stage - WIP'!$A$9:$N$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Valkyrie Stage-0'!$A$9:$N$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$8:$N$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,11 +44,35 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Roy Berntsen</author>
     <author/>
-    <author>Roy Berntsen</author>
   </authors>
   <commentList>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6855C535-5896-4E20-B657-531D910799F7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Stage I is no watercooling and only passive heating for chamber. Read the Releasenote</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="I8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="P9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -197,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="P14" authorId="0" shapeId="0" xr:uid="{9F7986C5-95BB-43B2-B883-79C8A2D7432C}">
       <text>
         <r>
           <rPr>
@@ -245,7 +273,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="K18" authorId="0" shapeId="0" xr:uid="{08B049A2-906E-42AE-822E-34A4C23CAA6D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Budget Frame Kit Option</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K19" authorId="0" shapeId="0" xr:uid="{B4E9D9E5-3AB0-4E10-AA68-1A064859F102}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Misumi Frame and SAIR Linear Guides</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D52" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -280,20 +356,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="P57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="O52" authorId="0" shapeId="0" xr:uid="{AECD0478-11D5-450E-9BFF-EC30AF4BED18}">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
-          <t>Need 120v option
-======</t>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Option Board</t>
         </r>
       </text>
     </comment>
-    <comment ref="K72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="K66" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -309,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K82" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="K71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -333,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P73" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -346,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="P74" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="P75" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="P76" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -385,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="P77" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -398,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="P81" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -411,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="P82" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -424,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="P83" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -437,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="P86" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -450,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="P87" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -463,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="P88" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -476,7 +563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="P89" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -489,7 +576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="P90" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -502,7 +589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P102" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="P91" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -515,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="P92" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -528,7 +615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P105" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="P94" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -550,8 +637,899 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Roy Berntsen</author>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4E04DBCF-5741-40A7-9DAD-7F1DB1634648}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Stage 0 is a barbone machine - no enclosure parts and no drybox parts included</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="1" shapeId="0" xr:uid="{F49ACD8A-68C9-428C-BCCF-2D9C0D176A9A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>======
+ID#AAAAWv-ECBQ
+Roy Berntsen    (2022-03-13 21:41:57)
+ACTUAL NUMBER OF ITEMS IN THE BUILD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="1" shapeId="0" xr:uid="{27752451-129E-4DC7-9B47-AE44BD4E33BE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>======
+ID#AAAAWv-ECBY
+Roy Berntsen    (2022-03-13 22:09:50)
+Package Price or Item Price if 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="1" shapeId="0" xr:uid="{1C0BDA46-B60B-4922-9194-5CC7A0587362}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>======
+ID#AAAAWv-ECBU
+Roy Berntsen    (2022-03-13 21:42:39)
+NUMBER OF LINKED ITEMS YOU NEED</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="1" shapeId="0" xr:uid="{A05628FA-8508-4493-A311-D12FD67A0B02}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>NB! ASK FOR PRECISION CUT TO THESE SIZES!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{5AAF707A-B3AE-4754-84C3-37A9823AE7E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ask for precision cut frame bundle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{56A21F34-A05E-4B97-A26F-E6F27613448F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ask for precision cut frame bundle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{B5FBC3C1-7DE4-4E97-9275-270055AD2A61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ask for precision cut frame bundle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{21D62760-C267-4DAD-A8A9-DB6D0A3E2FBD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ask for precision cut frame bundle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P14" authorId="0" shapeId="0" xr:uid="{3E230108-E93A-4E89-9E8D-59B0AEAF733E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ask for precision cut frame bundle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="0" shapeId="0" xr:uid="{78E62795-B083-4BDA-A962-7977D111BF28}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+High end replacement for 16x L 2028 - Then add 8x 2040 precision bracket and get 16 less 2028</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K19" authorId="0" shapeId="0" xr:uid="{82C705AE-82A5-4F62-8ED8-5D09D31A6635}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Budget Frame Kit Option</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{C0B04DE6-A619-46C6-A71E-93F9FE30D2FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Misumi Frame and SAIR Linear Guides</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D52" authorId="1" shapeId="0" xr:uid="{EBAD2278-7842-4E36-A824-48F8360DDF44}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>======
+ID#AAAAU9rYSiw
+Roy Berntsen    (2022-02-23 08:59:56)
+Big Dipper is a combination of duet3 mini5 + and Mini 2 +. Its main control and pin allocation are completely consistent with mini5 +, and the firmware of mini5 + can be used directly. At the same time, the power supply and IO protection have been upgraded to a certain extent to make it safer. The switching between WiFi version and Ethernet version can be realized by replacing the module. WiFi supports external antenna.
+Based on the good ecology of RRF firmware and the on-board 7-axis (7xtmc2209), the board can be easily configured for a variety of models, such as Voron series, multi z-axis models, dual x models, etc.
+Size: 148.5 x 87mm
+Based on same54p20 (arm cortex M4 @ 120mhz), it is fully compatible with duet3 mini5 +
+Onboard 7-way tmc2209 stepper motor drive
+Input / output IO full TVs protection
+28V maximum input, 12V@2A DC-DC (12V fan supply), 5V@8A DC-DC (power supply for raspberry pie and system), two 3 3V@0.6A LDO (power supply for MCU and 3.3V peripherals respectively)
+Two automotive fuses for hot bed input and main power input
+Using xh2.54 connector, the functions of each interface are completely consistent with mini5 +
+7x PWM power MOSFET output (1 for hot bed, 2 for hot end, 4 for fan,)
+Reprap discount smart controller compatible sockets, Exp1 and exp2. It supports monochrome displays such as 200412864.
+Uart1 raspberry PI row needle (including 5V@5A Power supply)
+2x4 row pin lead out for external SD card module
+On board TF card slot
+Type-C USB socket
+3 Thermistor/PT1000 inputs and support for 2 PT100 or thermocouple inputs via the optional daughterboards.
+Both Wifi and Ethernet versions
+CAN-FD bus that supports the next generation of Duet3D expansion boards, smart tools and custom addons.
+Set up your printer and update the firmware through the web interface.
+All common 3D printer geometries are supported
+Support for a wide range of Z probes including DC42’s IR Z probe and the Duet3D Smart Effector for delta printers.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O52" authorId="0" shapeId="0" xr:uid="{F77B2A52-393E-4D39-A7C8-8EEC8D10061D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Option Board</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K66" authorId="1" shapeId="0" xr:uid="{A92E8AF9-07AC-4592-893A-37C420BCE314}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Bore Diameter:
+20T(5mm)-80T(5mm)
+Width:
+Width 6mm-200-2GT-6
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K68" authorId="0" shapeId="0" xr:uid="{AEE9C8AF-2FEE-4020-AA6E-6BBF08F013ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ASK for 350x350</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+    <author>Roy Berntsen</author>
+  </authors>
+  <commentList>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{26ADA579-6353-409F-8C06-CFC74E16F648}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>======
+ID#AAAAWv-ECBQ
+Roy Berntsen    (2022-03-13 21:41:57)
+ACTUAL NUMBER OF ITEMS IN THE BUILD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{A37BD692-8FF8-4B84-9109-E52143668323}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>======
+ID#AAAAWv-ECBY
+Roy Berntsen    (2022-03-13 22:09:50)
+Package Price or Item Price if 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{B0E1CA90-9B76-4710-8489-98D7677AFC59}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>======
+ID#AAAAWv-ECBU
+Roy Berntsen    (2022-03-13 21:42:39)
+NUMBER OF LINKED ITEMS YOU NEED</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{890F1769-AC3B-4ACA-BDCC-3D72586B45A5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>NB! ASK FOR PRECISION CUT TO THESE SIZES!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="1" shapeId="0" xr:uid="{F14855FF-A4A2-4CF6-9E3C-9D617675DF76}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ask for precision cut frame bundle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P11" authorId="1" shapeId="0" xr:uid="{7D7AE8C6-E261-46AA-B661-A6526F0EE01A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ask for precision cut frame bundle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P12" authorId="1" shapeId="0" xr:uid="{EC1EE896-2A1E-4442-BFC4-24CBBFABB886}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ask for precision cut frame bundle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="1" shapeId="0" xr:uid="{4904DA73-0443-4227-A599-F95B87B7BF53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ask for precision cut frame bundle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P14" authorId="1" shapeId="0" xr:uid="{5BB6249F-C463-408A-823A-FBE0F3A1C4EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ask for precision cut frame bundle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="1" shapeId="0" xr:uid="{2CBC555C-49BF-4493-8C89-64F1675B30C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+High end replacement for 16x L 2028 - Then add 8x 2040 precision bracket and get 16 less 2028</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{ED5529D0-69EF-4825-961D-E9FDFD7970B6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>======
+ID#AAAAU9rYSiw
+Roy Berntsen    (2022-02-23 08:59:56)
+Big Dipper is a combination of duet3 mini5 + and Mini 2 +. Its main control and pin allocation are completely consistent with mini5 +, and the firmware of mini5 + can be used directly. At the same time, the power supply and IO protection have been upgraded to a certain extent to make it safer. The switching between WiFi version and Ethernet version can be realized by replacing the module. WiFi supports external antenna.
+Based on the good ecology of RRF firmware and the on-board 7-axis (7xtmc2209), the board can be easily configured for a variety of models, such as Voron series, multi z-axis models, dual x models, etc.
+Size: 148.5 x 87mm
+Based on same54p20 (arm cortex M4 @ 120mhz), it is fully compatible with duet3 mini5 +
+Onboard 7-way tmc2209 stepper motor drive
+Input / output IO full TVs protection
+28V maximum input, 12V@2A DC-DC (12V fan supply), 5V@8A DC-DC (power supply for raspberry pie and system), two 3 3V@0.6A LDO (power supply for MCU and 3.3V peripherals respectively)
+Two automotive fuses for hot bed input and main power input
+Using xh2.54 connector, the functions of each interface are completely consistent with mini5 +
+7x PWM power MOSFET output (1 for hot bed, 2 for hot end, 4 for fan,)
+Reprap discount smart controller compatible sockets, Exp1 and exp2. It supports monochrome displays such as 200412864.
+Uart1 raspberry PI row needle (including 5V@5A Power supply)
+2x4 row pin lead out for external SD card module
+On board TF card slot
+Type-C USB socket
+3 Thermistor/PT1000 inputs and support for 2 PT100 or thermocouple inputs via the optional daughterboards.
+Both Wifi and Ethernet versions
+CAN-FD bus that supports the next generation of Duet3D expansion boards, smart tools and custom addons.
+Set up your printer and update the firmware through the web interface.
+All common 3D printer geometries are supported
+Support for a wide range of Z probes including DC42’s IR Z probe and the Duet3D Smart Effector for delta printers.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P57" authorId="0" shapeId="0" xr:uid="{53D55A03-902E-41F6-825F-C88FB45EAF15}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Need 120v option
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K72" authorId="0" shapeId="0" xr:uid="{9FB1739B-3540-4C86-B0FE-6648ACE3B503}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Bore Diameter:
+20T(5mm)-80T(5mm)
+Width:
+Width 6mm-200-2GT-6
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K82" authorId="1" shapeId="0" xr:uid="{96A4FB46-78E7-4BE6-A276-5D08FA903EC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ASK for 350x350</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P84" authorId="0" shapeId="0" xr:uid="{53BF2771-F99E-4689-AB40-26FEC451F6D2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Must be flathead countersink, exact size
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P85" authorId="0" shapeId="0" xr:uid="{565535AC-885C-4E49-8C55-53E3C53B0957}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Jaws
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P86" authorId="0" shapeId="0" xr:uid="{072A8D4C-A5D0-44D4-9446-088073F0A5BC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Jaws, Fan to Shroud and Shroud to Drybox
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P87" authorId="0" shapeId="0" xr:uid="{29CECE11-0754-481D-BDDA-A0B2B164CE97}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Socket or Button Head, can be longer, up to 21mm
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P88" authorId="0" shapeId="0" xr:uid="{54330F69-1D5E-4D9A-B307-47C6D8E53ED1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Any 608 bearings should work, suggest 2RS so bearings can be greased if needed
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P92" authorId="0" shapeId="0" xr:uid="{2FE6F066-AC28-45CB-B384-536B94F3A12F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Read slow load cell sensor
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P93" authorId="0" shapeId="0" xr:uid="{906A2A0C-2949-4775-AFDD-A107B0833A52}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Carousel to load cell.  Button Head required (change to CS Screw)  Length 14, 16 or 20mm ok
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P94" authorId="0" shapeId="0" xr:uid="{B49D564B-1B6E-44F0-9290-430769ED33FE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Length dependant on thickness of drybox walls + 10mm for load cell 
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P97" authorId="0" shapeId="0" xr:uid="{BAE838CD-CE74-4411-8DB4-1DD272C8EA10}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Optional, will increase min spool ID
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P98" authorId="0" shapeId="0" xr:uid="{C39C3CD4-F27E-4448-BACA-B7C013C105BC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Jaws.  No threads, "bushing spacers".  15mm long
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P99" authorId="0" shapeId="0" xr:uid="{2BCC6418-CD2E-4EB0-942B-EB99D8F0FBC8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Steel to minimize heat transfer
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P100" authorId="0" shapeId="0" xr:uid="{38BA4CAA-622D-4A6B-BECC-6AECF237AAB7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Steel to minimize heat transfer
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P101" authorId="0" shapeId="0" xr:uid="{710693CE-90D0-45DB-AF2A-230B5AD63C6A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>4 depend on thickness of drybox walls, can use CS to reduce fastener count
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P102" authorId="0" shapeId="0" xr:uid="{EA4670EF-2460-4760-B290-4463E38BC3DB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Shroud to standoffs
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P103" authorId="0" shapeId="0" xr:uid="{1AEDC35A-1092-471D-8B47-07633CC0EAF6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>50 CFM or higher.  Heater must be run lower PWM if lower CFM
+======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P105" authorId="0" shapeId="0" xr:uid="{D53AEAC8-14B7-4CCD-AB6F-A42ACCA65DF6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Value must be lower than Tg of plastic used for fan shroud
+======</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="344">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -1533,6 +2511,90 @@
   <si>
     <t>NB! WORK IN PROGRESS - STAGE I Releace Candidate</t>
   </si>
+  <si>
+    <t>8x: 2040-4 hole</t>
+  </si>
+  <si>
+    <t>2040 Frame Kit - Misumi Premium</t>
+  </si>
+  <si>
+    <t>Premium Frame + Rail Bundle</t>
+  </si>
+  <si>
+    <t>1x ADXL345 for Klipper</t>
+  </si>
+  <si>
+    <t>Octopus+TMC2209x8</t>
+  </si>
+  <si>
+    <t>Choose FW</t>
+  </si>
+  <si>
+    <t>Window Front</t>
+  </si>
+  <si>
+    <t>Polycarbonate Sheet</t>
+  </si>
+  <si>
+    <t>Specification: 350x350x3mm</t>
+  </si>
+  <si>
+    <t>Budget A Bundle Price</t>
+  </si>
+  <si>
+    <t>Premium Budle Price</t>
+  </si>
+  <si>
+    <t>2040 Frame Kit - Budget</t>
+  </si>
+  <si>
+    <t>Budget Frame + Rail Bundle Kit</t>
+  </si>
+  <si>
+    <t>3xGL: 350 - C: MGN12 H</t>
+  </si>
+  <si>
+    <t>2xGL: 400 - C: MGN12 H</t>
+  </si>
+  <si>
+    <t>1xGL: 400 - C: MGN9 H</t>
+  </si>
+  <si>
+    <t>Klipper Humid Sensor</t>
+  </si>
+  <si>
+    <t>3d Printer - Budget</t>
+  </si>
+  <si>
+    <t>3d Printer - Premium</t>
+  </si>
+  <si>
+    <t>Zhongfa</t>
+  </si>
+  <si>
+    <t>Micky</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YEKMLCO </t>
+  </si>
+  <si>
+    <t>BGS</t>
+  </si>
+  <si>
+    <t>NB! WORK IN PROGRESS - STAGE I Release Candidate</t>
+  </si>
+  <si>
+    <t>NB! WORK IN PROGRESS - STAGE 0 Release Candidate</t>
+  </si>
+  <si>
+    <t>Project Valkyrie - Stage-0</t>
+  </si>
+  <si>
+    <t>Project Valkyrie - Stage-I</t>
+  </si>
 </sst>
 </file>
 
@@ -1545,7 +2607,7 @@
     <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
     <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1704,6 +2766,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1713,7 +2789,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1888,12 +2964,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2059,6 +3146,126 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2067,7 +3274,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="60">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2254,6 +3461,488 @@
     <dxf>
       <border outline="0">
         <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
           <color indexed="64"/>
         </top>
         <bottom style="medium">
@@ -2312,6 +4001,102 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1647825" cy="926902"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1647825" cy="926902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>23397</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2005428" cy="1128054"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228C3332-00F8-47CB-BEF6-43829A27D6FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1604547" y="1"/>
+          <a:ext cx="2005428" cy="1128054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2323,7 +4108,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42EACFE4-34EA-4BE2-B427-49282BD9DDFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2352,25 +4137,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A9:P111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:P98" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
+  <autoFilter ref="A8:P98" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Type" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cut Length mm" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Total mm" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="BOM Quantity" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pack Price $" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pack Order Quantity" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Line Price $" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Order Parts Link" dataDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Supplier" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DIN" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="ISO" dataDxfId="42"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Option" dataDxfId="41"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Note" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B1E2C748-5D43-4F92-9FF9-C2A1FBA6D095}" name="Table17" displayName="Table17" ref="A9:P68" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
+  <autoFilter ref="A9:P68" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{C80C4495-E4D8-4154-ACA1-4C21D9F6C58F}" name="System" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{E400FABF-ED84-4DE6-8BDF-123B96DE566F}" name="Category" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{FC53DDDF-653E-4DC9-BFB4-1A2B67E165B1}" name="Part Type" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{7C069D33-2173-46EB-AA8D-3470715FA59B}" name="Description" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{C53671FC-323B-40F3-A781-F8050107419E}" name="Cut Length mm" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{EE20EE2D-1479-4196-9A1D-11B35E9F2D36}" name="Total mm" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{ADD656ED-A1CD-468F-ADFF-E23CE9B1EF37}" name="BOM Quantity" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{69E97337-4618-4DD2-BDCD-7A536328117F}" name="Pack Price $" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{C02CC12E-E07A-413C-9498-FE523E2215D4}" name="Pack Order Quantity" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{99A9A5D6-5237-4BA0-87AF-D44034470ACD}" name="Line Price $" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{AB6BB070-D22E-408F-98BD-56C3204EBBC3}" name="Order Parts Link" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{46320B41-5940-442E-BE05-1A40AA0E197F}" name="Supplier" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{50C06690-5011-4E45-8A39-5C1B6ED12E19}" name="DIN" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{6A94F2DB-0E2A-4255-9267-B78F613D657F}" name="ISO" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{C3A612AF-AB98-478B-900B-6E1DAAC2C9BD}" name="Option" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{E29DDB73-E9CD-4439-B3FF-C14810F3A60C}" name="Note" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7D2207A3-ABDF-44C1-B51B-2C924E96E13B}" name="Table14" displayName="Table14" ref="A9:P111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <autoFilter ref="A9:P111" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Type" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cut Length mm" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Total mm" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="BOM Quantity" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pack Price $" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pack Order Quantity" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Line Price $" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Order Parts Link" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Supplier" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DIN" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="ISO" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Option" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Note" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{899B07A7-2516-49DE-97C7-1D7043958866}" name="System" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{49E7BEA6-FE0A-4116-9436-3BC4F0A84566}" name="Category" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{6FABF45A-7A64-4097-AEED-F8A006C01F72}" name="Part Type" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{12CBAFE7-7602-498B-AED7-3D0C7BB910EE}" name="Description" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{4716CC8D-6C93-4480-8AFE-A281F5CB422F}" name="Cut Length mm" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{0EEB8378-62CB-4554-84AE-FEDAB4194422}" name="Total mm" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{798A69E6-02C0-4D66-852B-773A263A1CBD}" name="BOM Quantity" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{8618C151-C6D7-40B8-B999-525C0D922035}" name="Pack Price $" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{287D828F-32BA-4A6B-AEF7-A1F4A8A86BA4}" name="Pack Order Quantity" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{1E367BBF-535C-4726-9FE9-933965BD20D1}" name="Line Price $" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{11425295-71E0-486F-B29C-8C2F0D25CAE6}" name="Order Parts Link" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{810D602E-D527-4FEA-B4A6-E9BD9F7F86AA}" name="Supplier" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{06846A9E-5997-4A07-9CDA-9B2EB1A60835}" name="DIN" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{FBF4C7F7-60DA-4FC8-85DA-D125B225F05A}" name="ISO" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{7EA4E715-7B53-4719-9C29-C9D39BA9F88C}" name="Option" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{8B3A98BE-B2D9-4379-BFB0-EA551DAEF869}" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2577,18 +4412,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z112"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
@@ -2597,33 +4432,6904 @@
     <col min="9" max="9" width="13.140625" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="11" max="11" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
     <col min="17" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:26" ht="27">
+      <c r="A1" s="164" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="1"/>
+      <c r="C2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="C3" s="1"/>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickBot="1">
+      <c r="C5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="145" customFormat="1" ht="15.75">
+      <c r="A6" s="141"/>
+      <c r="B6" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="141" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="146">
+        <f>J99</f>
+        <v>1681.7499999999998</v>
+      </c>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="144"/>
+    </row>
+    <row r="7" spans="1:26" s="14" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A7" s="124"/>
+      <c r="B7" s="125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="124" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="138">
+        <f>J100</f>
+        <v>1939.7499999999998</v>
+      </c>
+      <c r="K7" s="126"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+    </row>
+    <row r="8" spans="1:26" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A8" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="137" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="137" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="137" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="137" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="147" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="68">
+        <v>359</v>
+      </c>
+      <c r="F9" s="69">
+        <f t="shared" ref="F9:F13" si="0">G9*E9</f>
+        <v>359</v>
+      </c>
+      <c r="G9" s="69">
+        <v>1</v>
+      </c>
+      <c r="H9" s="70">
+        <v>7.26</v>
+      </c>
+      <c r="I9" s="69">
+        <v>1</v>
+      </c>
+      <c r="J9" s="148">
+        <v>8</v>
+      </c>
+      <c r="K9" s="108"/>
+      <c r="L9" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="101" t="s">
+        <v>314</v>
+      </c>
+      <c r="P9" s="84" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="29">
+        <f>E11</f>
+        <v>420</v>
+      </c>
+      <c r="F10" s="30">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="G10" s="30">
+        <v>1</v>
+      </c>
+      <c r="H10" s="31">
+        <v>9.5</v>
+      </c>
+      <c r="I10" s="30">
+        <v>1</v>
+      </c>
+      <c r="J10" s="150">
+        <f t="shared" ref="J10:J60" si="1">I10*H10</f>
+        <v>9.5</v>
+      </c>
+      <c r="K10" s="103"/>
+      <c r="L10" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="84" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="149" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="29">
+        <v>420</v>
+      </c>
+      <c r="F11" s="30">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+      <c r="G11" s="30">
+        <v>4</v>
+      </c>
+      <c r="H11" s="31">
+        <v>10.54</v>
+      </c>
+      <c r="I11" s="30">
+        <v>4</v>
+      </c>
+      <c r="J11" s="150">
+        <f t="shared" si="1"/>
+        <v>42.16</v>
+      </c>
+      <c r="K11" s="109"/>
+      <c r="L11" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="84" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="149" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="29">
+        <v>480</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" si="0"/>
+        <v>1920</v>
+      </c>
+      <c r="G12" s="30">
+        <v>4</v>
+      </c>
+      <c r="H12" s="31">
+        <v>11.121</v>
+      </c>
+      <c r="I12" s="30">
+        <v>4</v>
+      </c>
+      <c r="J12" s="150">
+        <f t="shared" si="1"/>
+        <v>44.484000000000002</v>
+      </c>
+      <c r="K12" s="103"/>
+      <c r="L12" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="84" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="149" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="29">
+        <v>750</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="G13" s="30">
+        <v>4</v>
+      </c>
+      <c r="H13" s="31">
+        <v>14.7</v>
+      </c>
+      <c r="I13" s="30">
+        <v>4</v>
+      </c>
+      <c r="J13" s="150">
+        <f t="shared" si="1"/>
+        <v>58.8</v>
+      </c>
+      <c r="K13" s="109"/>
+      <c r="L13" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="84" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="149" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30">
+        <v>42</v>
+      </c>
+      <c r="H14" s="31">
+        <v>5</v>
+      </c>
+      <c r="I14" s="30">
+        <v>5</v>
+      </c>
+      <c r="J14" s="150">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="K14" s="103"/>
+      <c r="L14" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="100" t="s">
+        <v>288</v>
+      </c>
+      <c r="P14" s="103" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="27">
+        <v>350</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="39">
+        <v>3</v>
+      </c>
+      <c r="H15" s="31">
+        <v>15.6</v>
+      </c>
+      <c r="I15" s="39">
+        <v>3</v>
+      </c>
+      <c r="J15" s="150">
+        <f>I15*H15</f>
+        <v>46.8</v>
+      </c>
+      <c r="K15" s="109"/>
+      <c r="L15" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="112" t="s">
+        <v>329</v>
+      </c>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="27">
+        <v>400</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="39">
+        <v>2</v>
+      </c>
+      <c r="H16" s="31">
+        <v>17.5</v>
+      </c>
+      <c r="I16" s="39">
+        <v>2</v>
+      </c>
+      <c r="J16" s="150">
+        <f>I16*H16</f>
+        <v>35</v>
+      </c>
+      <c r="K16" s="103"/>
+      <c r="L16" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="112" t="s">
+        <v>330</v>
+      </c>
+      <c r="P16" s="35"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A17" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="27">
+        <v>400</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="39">
+        <v>1</v>
+      </c>
+      <c r="H17" s="31">
+        <v>16</v>
+      </c>
+      <c r="I17" s="39">
+        <v>1</v>
+      </c>
+      <c r="J17" s="150">
+        <f>I17*H17</f>
+        <v>16</v>
+      </c>
+      <c r="K17" s="103"/>
+      <c r="L17" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="112" t="s">
+        <v>331</v>
+      </c>
+      <c r="P17" s="35"/>
+    </row>
+    <row r="18" spans="1:16" s="4" customFormat="1">
+      <c r="A18" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="132" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="133" t="s">
+        <v>327</v>
+      </c>
+      <c r="E18" s="66"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="134">
+        <v>1</v>
+      </c>
+      <c r="H18" s="70">
+        <v>265</v>
+      </c>
+      <c r="I18" s="134"/>
+      <c r="J18" s="148">
+        <f>I18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="135" t="s">
+        <v>328</v>
+      </c>
+      <c r="L18" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="35"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A19" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="151" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="110" t="s">
+        <v>317</v>
+      </c>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="79">
+        <v>1</v>
+      </c>
+      <c r="H19" s="80">
+        <v>523</v>
+      </c>
+      <c r="I19" s="79">
+        <v>1</v>
+      </c>
+      <c r="J19" s="152">
+        <f t="shared" ref="J19" si="2">I19*H19</f>
+        <v>523</v>
+      </c>
+      <c r="K19" s="111" t="s">
+        <v>318</v>
+      </c>
+      <c r="L19" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="35"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="149" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="27">
+        <v>410</v>
+      </c>
+      <c r="F20" s="30">
+        <v>500</v>
+      </c>
+      <c r="G20" s="30">
+        <v>1</v>
+      </c>
+      <c r="H20" s="31">
+        <v>20</v>
+      </c>
+      <c r="I20" s="30">
+        <v>1</v>
+      </c>
+      <c r="J20" s="150">
+        <f>I20*H20</f>
+        <v>20</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="35"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="149" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="27">
+        <v>350</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30">
+        <v>1225</v>
+      </c>
+      <c r="H21" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="I21" s="30">
+        <v>1225</v>
+      </c>
+      <c r="J21" s="150">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="35"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="149" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="97" t="s">
+        <v>313</v>
+      </c>
+      <c r="E22" s="27">
+        <v>330</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30">
+        <v>1</v>
+      </c>
+      <c r="H22" s="31">
+        <v>50</v>
+      </c>
+      <c r="I22" s="30">
+        <v>1</v>
+      </c>
+      <c r="J22" s="150">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="35"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="149" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="27">
+        <v>25</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30">
+        <v>5</v>
+      </c>
+      <c r="H23" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="I23" s="30">
+        <v>1</v>
+      </c>
+      <c r="J23" s="150">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="35"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="149" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="27">
+        <v>40</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30">
+        <v>12</v>
+      </c>
+      <c r="H24" s="31">
+        <v>3</v>
+      </c>
+      <c r="I24" s="30">
+        <v>3</v>
+      </c>
+      <c r="J24" s="150">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="35"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="149" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="27">
+        <v>50</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30">
+        <v>6</v>
+      </c>
+      <c r="H25" s="31">
+        <v>3</v>
+      </c>
+      <c r="I25" s="30">
+        <v>2</v>
+      </c>
+      <c r="J25" s="150">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="35"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="149" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30">
+        <v>3</v>
+      </c>
+      <c r="H26" s="31">
+        <v>3</v>
+      </c>
+      <c r="I26" s="30">
+        <v>1</v>
+      </c>
+      <c r="J26" s="150">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="35"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="27">
+        <v>30</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30">
+        <v>3</v>
+      </c>
+      <c r="H27" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="I27" s="30">
+        <v>2</v>
+      </c>
+      <c r="J27" s="150">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="35"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="149" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="27">
+        <v>6</v>
+      </c>
+      <c r="H28" s="31">
+        <v>7.5</v>
+      </c>
+      <c r="I28" s="30">
+        <v>1</v>
+      </c>
+      <c r="J28" s="150">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="35"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="27">
+        <v>21</v>
+      </c>
+      <c r="H29" s="31">
+        <v>1</v>
+      </c>
+      <c r="I29" s="39">
+        <v>1</v>
+      </c>
+      <c r="J29" s="150">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29" s="40">
+        <v>934</v>
+      </c>
+      <c r="N29" s="40">
+        <v>4032</v>
+      </c>
+      <c r="O29" s="54"/>
+      <c r="P29" s="35"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="27">
+        <v>34</v>
+      </c>
+      <c r="H30" s="31">
+        <v>3</v>
+      </c>
+      <c r="I30" s="39">
+        <v>1</v>
+      </c>
+      <c r="J30" s="150">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="35"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="27">
+        <v>24</v>
+      </c>
+      <c r="H31" s="31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="39">
+        <v>1</v>
+      </c>
+      <c r="J31" s="150">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40">
+        <v>7380</v>
+      </c>
+      <c r="O31" s="54"/>
+      <c r="P31" s="35"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="27">
+        <v>34</v>
+      </c>
+      <c r="H32" s="31">
+        <v>1</v>
+      </c>
+      <c r="I32" s="39">
+        <v>1</v>
+      </c>
+      <c r="J32" s="150">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" s="34">
+        <v>912</v>
+      </c>
+      <c r="N32" s="34"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="35"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="27">
+        <v>33</v>
+      </c>
+      <c r="H33" s="31">
+        <v>1</v>
+      </c>
+      <c r="I33" s="39">
+        <v>1</v>
+      </c>
+      <c r="J33" s="150">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="L33" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40">
+        <v>7380</v>
+      </c>
+      <c r="O33" s="54"/>
+      <c r="P33" s="35"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="27">
+        <v>8</v>
+      </c>
+      <c r="H34" s="31">
+        <v>2</v>
+      </c>
+      <c r="I34" s="39">
+        <v>1</v>
+      </c>
+      <c r="J34" s="150">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K34" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34">
+        <v>7380</v>
+      </c>
+      <c r="O34" s="54"/>
+      <c r="P34" s="35"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="27">
+        <v>3</v>
+      </c>
+      <c r="H35" s="31">
+        <v>4</v>
+      </c>
+      <c r="I35" s="39">
+        <v>3</v>
+      </c>
+      <c r="J35" s="150">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K35" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="35"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="27"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="27">
+        <v>6</v>
+      </c>
+      <c r="H36" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="I36" s="39">
+        <v>1</v>
+      </c>
+      <c r="J36" s="150">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="K36" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="L36" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M36" s="34">
+        <v>934</v>
+      </c>
+      <c r="N36" s="34">
+        <v>4032</v>
+      </c>
+      <c r="O36" s="54"/>
+      <c r="P36" s="35"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="27">
+        <v>3</v>
+      </c>
+      <c r="H37" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="I37" s="39">
+        <v>1</v>
+      </c>
+      <c r="J37" s="150">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M37" s="40">
+        <v>985</v>
+      </c>
+      <c r="N37" s="40">
+        <v>10511</v>
+      </c>
+      <c r="O37" s="54"/>
+      <c r="P37" s="35"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="27">
+        <v>3</v>
+      </c>
+      <c r="H38" s="31">
+        <v>1</v>
+      </c>
+      <c r="I38" s="39">
+        <v>1</v>
+      </c>
+      <c r="J38" s="150">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="L38" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="34">
+        <v>125</v>
+      </c>
+      <c r="N38" s="34">
+        <v>7089</v>
+      </c>
+      <c r="O38" s="54"/>
+      <c r="P38" s="35"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="27">
+        <v>3</v>
+      </c>
+      <c r="H39" s="31">
+        <v>2</v>
+      </c>
+      <c r="I39" s="39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="150">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K39" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40">
+        <v>7991</v>
+      </c>
+      <c r="O39" s="54"/>
+      <c r="P39" s="35"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="27">
+        <v>3</v>
+      </c>
+      <c r="H40" s="31">
+        <v>2</v>
+      </c>
+      <c r="I40" s="39">
+        <v>1</v>
+      </c>
+      <c r="J40" s="150">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K40" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="L40" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34">
+        <v>7991</v>
+      </c>
+      <c r="O40" s="54"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="27">
+        <v>4</v>
+      </c>
+      <c r="H41" s="31">
+        <v>2</v>
+      </c>
+      <c r="I41" s="39">
+        <v>1</v>
+      </c>
+      <c r="J41" s="150">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K41" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="L41" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M41" s="40">
+        <v>934</v>
+      </c>
+      <c r="N41" s="40">
+        <v>4032</v>
+      </c>
+      <c r="O41" s="54"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="27">
+        <v>30</v>
+      </c>
+      <c r="H42" s="31">
+        <v>11</v>
+      </c>
+      <c r="I42" s="39">
+        <v>1</v>
+      </c>
+      <c r="J42" s="150">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K42" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="L42" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="27"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="27">
+        <v>5</v>
+      </c>
+      <c r="H43" s="31">
+        <v>2.81</v>
+      </c>
+      <c r="I43" s="39">
+        <v>1</v>
+      </c>
+      <c r="J43" s="150">
+        <f t="shared" si="1"/>
+        <v>2.81</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="L43" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M43" s="40">
+        <v>985</v>
+      </c>
+      <c r="N43" s="40">
+        <v>10511</v>
+      </c>
+      <c r="O43" s="54"/>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" s="27"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="27">
+        <v>84</v>
+      </c>
+      <c r="H44" s="31">
+        <v>13.5</v>
+      </c>
+      <c r="I44" s="39">
+        <v>1</v>
+      </c>
+      <c r="J44" s="150">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="K44" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L44" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="27">
+        <v>89</v>
+      </c>
+      <c r="H45" s="31">
+        <v>1.28</v>
+      </c>
+      <c r="I45" s="39">
+        <v>2</v>
+      </c>
+      <c r="J45" s="150">
+        <f t="shared" si="1"/>
+        <v>2.56</v>
+      </c>
+      <c r="K45" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="L45" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M45" s="40">
+        <v>125</v>
+      </c>
+      <c r="N45" s="40">
+        <v>7089</v>
+      </c>
+      <c r="O45" s="54"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="27">
+        <v>111</v>
+      </c>
+      <c r="H46" s="31">
+        <v>2.69</v>
+      </c>
+      <c r="I46" s="39">
+        <v>12</v>
+      </c>
+      <c r="J46" s="150">
+        <f t="shared" si="1"/>
+        <v>32.28</v>
+      </c>
+      <c r="K46" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="L46" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34">
+        <v>7380</v>
+      </c>
+      <c r="O46" s="54"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="27">
+        <v>7</v>
+      </c>
+      <c r="H47" s="31">
+        <v>8</v>
+      </c>
+      <c r="I47" s="41">
+        <v>1</v>
+      </c>
+      <c r="J47" s="150">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K47" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="L47" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40">
+        <v>7380</v>
+      </c>
+      <c r="O47" s="54"/>
+      <c r="P47" s="35"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="149" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="27"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="27">
+        <v>5</v>
+      </c>
+      <c r="H48" s="31">
+        <v>2.57</v>
+      </c>
+      <c r="I48" s="41">
+        <v>1</v>
+      </c>
+      <c r="J48" s="150">
+        <f t="shared" si="1"/>
+        <v>2.57</v>
+      </c>
+      <c r="K48" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="L48" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M48" s="34">
+        <v>933</v>
+      </c>
+      <c r="N48" s="34">
+        <v>4017</v>
+      </c>
+      <c r="O48" s="54"/>
+      <c r="P48" s="35"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="39">
+        <v>33</v>
+      </c>
+      <c r="H49" s="31">
+        <v>16</v>
+      </c>
+      <c r="I49" s="39">
+        <v>1</v>
+      </c>
+      <c r="J49" s="150">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K49" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="L49" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="50" spans="1:16" s="87" customFormat="1">
+      <c r="A50" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="E50" s="99"/>
+      <c r="F50" s="153"/>
+      <c r="G50" s="153"/>
+      <c r="H50" s="154">
+        <v>8</v>
+      </c>
+      <c r="I50" s="153">
+        <v>1</v>
+      </c>
+      <c r="J50" s="150">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K50" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="L50" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="M50" s="92"/>
+      <c r="N50" s="92"/>
+      <c r="O50" s="93"/>
+      <c r="P50" s="94"/>
+    </row>
+    <row r="51" spans="1:16" s="87" customFormat="1">
+      <c r="A51" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="99" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" s="99"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="154">
+        <v>0.74</v>
+      </c>
+      <c r="I51" s="153">
+        <v>1</v>
+      </c>
+      <c r="J51" s="150">
+        <f t="shared" si="1"/>
+        <v>0.74</v>
+      </c>
+      <c r="K51" s="90" t="s">
+        <v>297</v>
+      </c>
+      <c r="L51" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="M51" s="95" t="s">
+        <v>296</v>
+      </c>
+      <c r="N51" s="92"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="94"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="27"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="39">
+        <v>1</v>
+      </c>
+      <c r="H52" s="31">
+        <v>71</v>
+      </c>
+      <c r="I52" s="39">
+        <v>1</v>
+      </c>
+      <c r="J52" s="150">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="K52" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="L52" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="112" t="s">
+        <v>320</v>
+      </c>
+      <c r="P52" s="35"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="27"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="39">
+        <v>1</v>
+      </c>
+      <c r="H53" s="31">
+        <v>23</v>
+      </c>
+      <c r="I53" s="39">
+        <v>1</v>
+      </c>
+      <c r="J53" s="150">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="L53" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="27"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="39">
+        <v>1</v>
+      </c>
+      <c r="H54" s="31">
+        <v>7.5</v>
+      </c>
+      <c r="I54" s="39">
+        <v>1</v>
+      </c>
+      <c r="J54" s="150">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="K54" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="L54" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="E55" s="27">
+        <v>300</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55" s="39">
+        <v>1</v>
+      </c>
+      <c r="H55" s="31">
+        <v>78.39</v>
+      </c>
+      <c r="I55" s="39">
+        <v>1</v>
+      </c>
+      <c r="J55" s="150">
+        <f t="shared" si="1"/>
+        <v>78.39</v>
+      </c>
+      <c r="K55" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="L55" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="112" t="s">
+        <v>309</v>
+      </c>
+      <c r="P55" s="44"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="27"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="39">
+        <v>3</v>
+      </c>
+      <c r="H56" s="31">
+        <v>26</v>
+      </c>
+      <c r="I56" s="39">
+        <v>3</v>
+      </c>
+      <c r="J56" s="150">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L56" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="112" t="s">
+        <v>138</v>
+      </c>
+      <c r="P56" s="44"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="27"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="39">
+        <v>1</v>
+      </c>
+      <c r="H57" s="31">
+        <v>20</v>
+      </c>
+      <c r="I57" s="39">
+        <v>1</v>
+      </c>
+      <c r="J57" s="150">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K57" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="L57" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="35"/>
+    </row>
+    <row r="58" spans="1:16" s="4" customFormat="1">
+      <c r="A58" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="E58" s="27"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="39">
+        <v>1</v>
+      </c>
+      <c r="H58" s="31">
+        <v>2</v>
+      </c>
+      <c r="I58" s="39">
+        <v>1</v>
+      </c>
+      <c r="J58" s="150">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K58" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L58" s="33"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="112" t="s">
+        <v>319</v>
+      </c>
+      <c r="P58" s="35"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="27"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="39">
+        <v>1</v>
+      </c>
+      <c r="H59" s="31">
+        <v>3</v>
+      </c>
+      <c r="I59" s="39">
+        <v>1</v>
+      </c>
+      <c r="J59" s="150">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K59" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="L59" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="35"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="27"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="39">
+        <v>1</v>
+      </c>
+      <c r="H60" s="31">
+        <v>73.5</v>
+      </c>
+      <c r="I60" s="39">
+        <v>1</v>
+      </c>
+      <c r="J60" s="150">
+        <f t="shared" si="1"/>
+        <v>73.5</v>
+      </c>
+      <c r="K60" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="L60" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="35"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="27"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="39">
+        <v>1</v>
+      </c>
+      <c r="H61" s="31">
+        <v>70</v>
+      </c>
+      <c r="I61" s="39">
+        <v>1</v>
+      </c>
+      <c r="J61" s="150">
+        <f t="shared" ref="J61:J93" si="3">I61*H61</f>
+        <v>70</v>
+      </c>
+      <c r="K61" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="L61" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="35"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="27">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="30">
+        <v>8000</v>
+      </c>
+      <c r="G62" s="39">
+        <v>8</v>
+      </c>
+      <c r="H62" s="31">
+        <v>59</v>
+      </c>
+      <c r="I62" s="39">
+        <v>1</v>
+      </c>
+      <c r="J62" s="150">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="K62" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="L62" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="M62" s="34"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="27"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="39">
+        <v>10</v>
+      </c>
+      <c r="H63" s="31">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I63" s="39">
+        <v>10</v>
+      </c>
+      <c r="J63" s="150">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="K63" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="L63" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="35"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64" s="27"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="39">
+        <v>5</v>
+      </c>
+      <c r="H64" s="31">
+        <v>6</v>
+      </c>
+      <c r="I64" s="39">
+        <v>5</v>
+      </c>
+      <c r="J64" s="150">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="K64" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="L64" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="35"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" s="27"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="39">
+        <v>5</v>
+      </c>
+      <c r="H65" s="31">
+        <v>4</v>
+      </c>
+      <c r="I65" s="39">
+        <v>5</v>
+      </c>
+      <c r="J65" s="150">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K65" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="L65" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="35"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="27">
+        <v>200</v>
+      </c>
+      <c r="F66" s="30">
+        <v>600</v>
+      </c>
+      <c r="G66" s="39">
+        <v>3</v>
+      </c>
+      <c r="H66" s="31">
+        <v>16</v>
+      </c>
+      <c r="I66" s="39">
+        <v>3</v>
+      </c>
+      <c r="J66" s="150">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="K66" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="L66" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="35"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" s="27"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="39">
+        <v>5</v>
+      </c>
+      <c r="H67" s="31">
+        <v>14.5</v>
+      </c>
+      <c r="I67" s="39">
+        <v>5</v>
+      </c>
+      <c r="J67" s="150">
+        <f t="shared" si="3"/>
+        <v>72.5</v>
+      </c>
+      <c r="K67" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="L67" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="35"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="E68" s="27"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="39">
+        <v>5</v>
+      </c>
+      <c r="H68" s="31">
+        <v>12</v>
+      </c>
+      <c r="I68" s="39">
+        <v>5</v>
+      </c>
+      <c r="J68" s="150">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="K68" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="L68" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="56"/>
+      <c r="P68" s="35"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69" s="27"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="39">
+        <v>5</v>
+      </c>
+      <c r="H69" s="31">
+        <v>25</v>
+      </c>
+      <c r="I69" s="39">
+        <v>5</v>
+      </c>
+      <c r="J69" s="150">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="K69" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="L69" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="56"/>
+      <c r="P69" s="35"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="E70" s="27">
+        <v>300</v>
+      </c>
+      <c r="F70" s="30"/>
+      <c r="G70" s="39">
+        <v>1</v>
+      </c>
+      <c r="H70" s="31">
+        <v>25</v>
+      </c>
+      <c r="I70" s="39">
+        <v>2</v>
+      </c>
+      <c r="J70" s="150">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="K70" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="L70" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+      <c r="O70" s="56"/>
+      <c r="P70" s="35"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="27">
+        <v>350</v>
+      </c>
+      <c r="F71" s="30"/>
+      <c r="G71" s="39">
+        <v>1</v>
+      </c>
+      <c r="H71" s="31">
+        <v>10</v>
+      </c>
+      <c r="I71" s="39">
+        <v>1</v>
+      </c>
+      <c r="J71" s="150">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K71" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="L71" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="35"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E72" s="27">
+        <v>400</v>
+      </c>
+      <c r="F72" s="30"/>
+      <c r="G72" s="39">
+        <v>2</v>
+      </c>
+      <c r="H72" s="31">
+        <v>24</v>
+      </c>
+      <c r="I72" s="39">
+        <v>1</v>
+      </c>
+      <c r="J72" s="150">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="K72" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="L72" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="56"/>
+      <c r="P72" s="45"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" s="27"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="39">
+        <v>5</v>
+      </c>
+      <c r="H73" s="31">
+        <f>2.28</f>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I73" s="39">
+        <v>1</v>
+      </c>
+      <c r="J73" s="150">
+        <f t="shared" si="3"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K73" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="L73" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M73" s="40">
+        <v>7991</v>
+      </c>
+      <c r="N73" s="40"/>
+      <c r="O73" s="56"/>
+      <c r="P73" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" s="27"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="39">
+        <v>3</v>
+      </c>
+      <c r="H74" s="31">
+        <f>4.51</f>
+        <v>4.51</v>
+      </c>
+      <c r="I74" s="39">
+        <v>1</v>
+      </c>
+      <c r="J74" s="150">
+        <f t="shared" si="3"/>
+        <v>4.51</v>
+      </c>
+      <c r="K74" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="L74" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M74" s="34"/>
+      <c r="N74" s="34">
+        <v>7380</v>
+      </c>
+      <c r="O74" s="58"/>
+      <c r="P74" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="E75" s="27"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="39">
+        <v>11</v>
+      </c>
+      <c r="H75" s="31">
+        <f>0.49</f>
+        <v>0.49</v>
+      </c>
+      <c r="I75" s="39">
+        <v>1</v>
+      </c>
+      <c r="J75" s="150">
+        <f t="shared" si="3"/>
+        <v>0.49</v>
+      </c>
+      <c r="K75" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="L75" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40">
+        <v>10511</v>
+      </c>
+      <c r="O75" s="58"/>
+      <c r="P75" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="27"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="39">
+        <v>3</v>
+      </c>
+      <c r="H76" s="31">
+        <f>0.99</f>
+        <v>0.99</v>
+      </c>
+      <c r="I76" s="39">
+        <v>1</v>
+      </c>
+      <c r="J76" s="150">
+        <f t="shared" si="3"/>
+        <v>0.99</v>
+      </c>
+      <c r="K76" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="L76" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M76" s="34"/>
+      <c r="N76" s="34">
+        <v>7380</v>
+      </c>
+      <c r="O76" s="56"/>
+      <c r="P76" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="E77" s="27"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="39">
+        <v>3</v>
+      </c>
+      <c r="H77" s="31">
+        <f>5.01</f>
+        <v>5.01</v>
+      </c>
+      <c r="I77" s="39">
+        <v>1</v>
+      </c>
+      <c r="J77" s="150">
+        <f t="shared" si="3"/>
+        <v>5.01</v>
+      </c>
+      <c r="K77" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="L77" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40">
+        <v>10511</v>
+      </c>
+      <c r="O77" s="56"/>
+      <c r="P77" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="27"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="39">
+        <v>1</v>
+      </c>
+      <c r="H78" s="31">
+        <f>13.5</f>
+        <v>13.5</v>
+      </c>
+      <c r="I78" s="39">
+        <v>1</v>
+      </c>
+      <c r="J78" s="150">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
+      </c>
+      <c r="K78" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="L78" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M78" s="34"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="58"/>
+      <c r="P78" s="35"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E79" s="27"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="39">
+        <v>1</v>
+      </c>
+      <c r="H79" s="31">
+        <f>2.03+1.59</f>
+        <v>3.62</v>
+      </c>
+      <c r="I79" s="39">
+        <v>1</v>
+      </c>
+      <c r="J79" s="150">
+        <f t="shared" si="3"/>
+        <v>3.62</v>
+      </c>
+      <c r="K79" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="L79" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="56"/>
+      <c r="P79" s="35"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="E80" s="27"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="39">
+        <v>1</v>
+      </c>
+      <c r="H80" s="31">
+        <v>3</v>
+      </c>
+      <c r="I80" s="39">
+        <v>1</v>
+      </c>
+      <c r="J80" s="150">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K80" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="L80" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="M80" s="34"/>
+      <c r="N80" s="34"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="35"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="E81" s="27"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="39">
+        <v>1</v>
+      </c>
+      <c r="H81" s="31">
+        <f>3.11+1.67</f>
+        <v>4.7799999999999994</v>
+      </c>
+      <c r="I81" s="39">
+        <v>1</v>
+      </c>
+      <c r="J81" s="150">
+        <f t="shared" si="3"/>
+        <v>4.7799999999999994</v>
+      </c>
+      <c r="K81" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="L81" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="E82" s="27"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="39">
+        <v>1</v>
+      </c>
+      <c r="H82" s="31">
+        <v>2</v>
+      </c>
+      <c r="I82" s="39">
+        <v>1</v>
+      </c>
+      <c r="J82" s="150">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K82" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="L82" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M82" s="34">
+        <v>7991</v>
+      </c>
+      <c r="N82" s="34"/>
+      <c r="O82" s="56"/>
+      <c r="P82" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="E83" s="27"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="39">
+        <v>2</v>
+      </c>
+      <c r="H83" s="31">
+        <f>2.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="I83" s="39">
+        <v>1</v>
+      </c>
+      <c r="J83" s="150">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="K83" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="L83" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M83" s="40">
+        <v>7991</v>
+      </c>
+      <c r="N83" s="40"/>
+      <c r="O83" s="56"/>
+      <c r="P83" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="E84" s="27"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="39">
+        <v>2</v>
+      </c>
+      <c r="H84" s="31">
+        <f>(2.8+1.51)</f>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="I84" s="39">
+        <v>1</v>
+      </c>
+      <c r="J84" s="150">
+        <f t="shared" si="3"/>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="K84" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="L84" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="M84" s="34"/>
+      <c r="N84" s="34"/>
+      <c r="O84" s="56"/>
+      <c r="P84" s="35"/>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D85" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="E85" s="27"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="39">
+        <v>1</v>
+      </c>
+      <c r="H85" s="31">
+        <f>1.72</f>
+        <v>1.72</v>
+      </c>
+      <c r="I85" s="39">
+        <v>1</v>
+      </c>
+      <c r="J85" s="150">
+        <f t="shared" si="3"/>
+        <v>1.72</v>
+      </c>
+      <c r="K85" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="L85" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="56"/>
+      <c r="P85" s="35"/>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="E86" s="27"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="39">
+        <v>1</v>
+      </c>
+      <c r="H86" s="31">
+        <f>2.44</f>
+        <v>2.44</v>
+      </c>
+      <c r="I86" s="39">
+        <v>1</v>
+      </c>
+      <c r="J86" s="150">
+        <f t="shared" si="3"/>
+        <v>2.44</v>
+      </c>
+      <c r="K86" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="L86" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="M86" s="34"/>
+      <c r="N86" s="34"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="E87" s="27"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="39">
+        <v>3</v>
+      </c>
+      <c r="H87" s="31">
+        <f>2.38</f>
+        <v>2.38</v>
+      </c>
+      <c r="I87" s="39">
+        <v>1</v>
+      </c>
+      <c r="J87" s="150">
+        <f t="shared" si="3"/>
+        <v>2.38</v>
+      </c>
+      <c r="K87" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="L87" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="58"/>
+      <c r="P87" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="E88" s="27"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="39">
+        <v>4</v>
+      </c>
+      <c r="H88" s="31">
+        <f>3.27</f>
+        <v>3.27</v>
+      </c>
+      <c r="I88" s="39">
+        <v>1</v>
+      </c>
+      <c r="J88" s="150">
+        <f t="shared" si="3"/>
+        <v>3.27</v>
+      </c>
+      <c r="K88" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="L88" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M88" s="34"/>
+      <c r="N88" s="34"/>
+      <c r="O88" s="56"/>
+      <c r="P88" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D89" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="E89" s="27"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="39">
+        <v>4</v>
+      </c>
+      <c r="H89" s="31">
+        <f>2.57</f>
+        <v>2.57</v>
+      </c>
+      <c r="I89" s="39">
+        <v>1</v>
+      </c>
+      <c r="J89" s="150">
+        <f t="shared" si="3"/>
+        <v>2.57</v>
+      </c>
+      <c r="K89" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="L89" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="56"/>
+      <c r="P89" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="E90" s="27"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="39">
+        <v>12</v>
+      </c>
+      <c r="H90" s="31">
+        <f>2.75</f>
+        <v>2.75</v>
+      </c>
+      <c r="I90" s="39">
+        <v>1</v>
+      </c>
+      <c r="J90" s="150">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
+      <c r="K90" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="L90" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M90" s="34">
+        <v>912</v>
+      </c>
+      <c r="N90" s="34"/>
+      <c r="O90" s="56"/>
+      <c r="P90" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E91" s="27"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="39">
+        <v>8</v>
+      </c>
+      <c r="H91" s="31">
+        <f>1.75</f>
+        <v>1.75</v>
+      </c>
+      <c r="I91" s="39">
+        <v>1</v>
+      </c>
+      <c r="J91" s="150">
+        <f t="shared" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="K91" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="L91" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M91" s="40"/>
+      <c r="N91" s="40">
+        <v>7380</v>
+      </c>
+      <c r="O91" s="56"/>
+      <c r="P91" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="E92" s="27"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="39">
+        <v>1</v>
+      </c>
+      <c r="H92" s="31">
+        <v>12</v>
+      </c>
+      <c r="I92" s="39">
+        <v>1</v>
+      </c>
+      <c r="J92" s="150">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="K92" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="L92" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="M92" s="34"/>
+      <c r="N92" s="34"/>
+      <c r="O92" s="56"/>
+      <c r="P92" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="E93" s="27"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="39">
+        <v>1</v>
+      </c>
+      <c r="H93" s="31">
+        <v>12</v>
+      </c>
+      <c r="I93" s="39">
+        <v>1</v>
+      </c>
+      <c r="J93" s="150">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="K93" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="L93" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="56"/>
+      <c r="P93" s="35"/>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="E94" s="27"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="39">
+        <v>1</v>
+      </c>
+      <c r="H94" s="31">
+        <f>(3+0.96)</f>
+        <v>3.96</v>
+      </c>
+      <c r="I94" s="39">
+        <v>1</v>
+      </c>
+      <c r="J94" s="150">
+        <f t="shared" ref="J94:J96" si="4">I94*H94</f>
+        <v>3.96</v>
+      </c>
+      <c r="K94" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="L94" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="M94" s="40"/>
+      <c r="N94" s="40"/>
+      <c r="O94" s="56"/>
+      <c r="P94" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" s="4" customFormat="1">
+      <c r="A95" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="E95" s="27"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="39">
+        <v>3</v>
+      </c>
+      <c r="H95" s="31">
+        <v>4.5</v>
+      </c>
+      <c r="I95" s="39">
+        <v>1</v>
+      </c>
+      <c r="J95" s="150">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="K95" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="L95" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="M95" s="40"/>
+      <c r="N95" s="40"/>
+      <c r="O95" s="56"/>
+      <c r="P95" s="44"/>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D96" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E96" s="27"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="39">
+        <v>1</v>
+      </c>
+      <c r="H96" s="31">
+        <v>4</v>
+      </c>
+      <c r="I96" s="39">
+        <v>1</v>
+      </c>
+      <c r="J96" s="150">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K96" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="L96" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="M96" s="34"/>
+      <c r="N96" s="34"/>
+      <c r="O96" s="112" t="s">
+        <v>332</v>
+      </c>
+      <c r="P96" s="46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="E97" s="27"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="39">
+        <v>1</v>
+      </c>
+      <c r="H97" s="31">
+        <f>0.87</f>
+        <v>0.87</v>
+      </c>
+      <c r="I97" s="39">
+        <v>1</v>
+      </c>
+      <c r="J97" s="150">
+        <f>H97*I97</f>
+        <v>0.87</v>
+      </c>
+      <c r="K97" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="L97" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M97" s="34"/>
+      <c r="N97" s="34"/>
+      <c r="O97" s="60"/>
+      <c r="P97" s="47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" s="4" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A98" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="D98" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="E98" s="27"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="39">
+        <v>1</v>
+      </c>
+      <c r="H98" s="31">
+        <v>21.5</v>
+      </c>
+      <c r="I98" s="39">
+        <v>1</v>
+      </c>
+      <c r="J98" s="150">
+        <f>H98*I98</f>
+        <v>21.5</v>
+      </c>
+      <c r="K98" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="L98" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="M98" s="34"/>
+      <c r="N98" s="34"/>
+      <c r="O98" s="60"/>
+      <c r="P98" s="47"/>
+    </row>
+    <row r="99" spans="1:26" s="4" customFormat="1" ht="15.75">
+      <c r="A99" s="116"/>
+      <c r="B99" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="156" t="s">
+        <v>325</v>
+      </c>
+      <c r="D99" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="118"/>
+      <c r="F99" s="118"/>
+      <c r="G99" s="117"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="117"/>
+      <c r="J99" s="157">
+        <f>SUM(J20:J98)+H18</f>
+        <v>1681.7499999999998</v>
+      </c>
+      <c r="K99" s="120"/>
+      <c r="L99" s="121"/>
+      <c r="M99" s="122"/>
+      <c r="N99" s="122"/>
+      <c r="O99" s="162"/>
+      <c r="P99" s="123"/>
+    </row>
+    <row r="100" spans="1:26" s="14" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A100" s="124"/>
+      <c r="B100" s="125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="124" t="s">
+        <v>326</v>
+      </c>
+      <c r="D100" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="126"/>
+      <c r="F100" s="126"/>
+      <c r="G100" s="126"/>
+      <c r="H100" s="126"/>
+      <c r="I100" s="127"/>
+      <c r="J100" s="138">
+        <f>SUM(J20:J98)+J19</f>
+        <v>1939.7499999999998</v>
+      </c>
+      <c r="K100" s="126"/>
+      <c r="L100" s="115"/>
+      <c r="M100" s="129"/>
+      <c r="N100" s="129"/>
+      <c r="O100" s="158"/>
+      <c r="P100" s="130"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="13"/>
+      <c r="U100" s="13"/>
+      <c r="V100" s="13"/>
+      <c r="W100" s="13"/>
+      <c r="X100" s="13"/>
+      <c r="Y100" s="13"/>
+      <c r="Z100" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K22" r:id="rId3" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K29" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K30" r:id="rId11" display="1x Size: 20-m3 50pcs" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K31" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K32" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K33" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K34" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K35" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K36" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K37" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K38" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K39" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K40" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K41" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K42" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K43" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K44" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K45" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K46" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K47" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K48" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K52" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K53" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K54" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K55" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="O56" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K57" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K59" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K60" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K61" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K62" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K63" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K64" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K65" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="K66" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K67" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K71" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K72" r:id="rId46" display="Color: Buffer 14inch 35cm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K73" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K74" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K75" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="K76" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K77" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K78" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K79" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K80" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K81" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K82" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K83" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="K84" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K85" r:id="rId59" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="K86" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K87" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="K88" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="K89" r:id="rId63" display="1x Size: M3 - 30mm" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K90" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="K91" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="K92" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="K93" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="K94" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K96" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="K97" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="K49" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="K95" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="K58" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="K98" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="K50" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="K51" r:id="rId76" display="M3 ss washer" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="K56" r:id="rId77" display="2x 164-0575" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="O55" r:id="rId78" display="1x 310mm 220V 750W" xr:uid="{6E7EA03F-E4E8-4DD1-88FA-53A949F0FE0C}"/>
+    <hyperlink ref="O9" r:id="rId79" display="Color: 339 mm" xr:uid="{0D6804EE-4770-4D20-B307-FE65C6578BD2}"/>
+    <hyperlink ref="O10" r:id="rId80" xr:uid="{9947BFF5-90A8-4F51-9383-9FD80AEAE014}"/>
+    <hyperlink ref="O11" r:id="rId81" xr:uid="{24273E88-341E-495F-87F3-B041C80C9C52}"/>
+    <hyperlink ref="O12" r:id="rId82" xr:uid="{D1869F91-793C-40AC-9B55-C7FD7CEDEB45}"/>
+    <hyperlink ref="O13" r:id="rId83" xr:uid="{8D497D2A-DB3C-4DBA-920F-7CD6A230AD63}"/>
+    <hyperlink ref="P14" r:id="rId84" display="Color: 2040-8 hole" xr:uid="{8477ACA5-F9D6-4133-8D57-992AC0D54255}"/>
+    <hyperlink ref="O14" r:id="rId85" display="Color: 10pcs 2028" xr:uid="{E67D56B5-AC71-4710-B9FF-E0CE991001BC}"/>
+    <hyperlink ref="O15" r:id="rId86" display="3x GL: 350 - Color: MGN12 H" xr:uid="{B0E7DD59-AD34-4A70-AC40-0E3FF119F5F8}"/>
+    <hyperlink ref="O16" r:id="rId87" display="2x GL: 400 - Color: MGN12 H" xr:uid="{89B273F8-0E35-4B6B-879E-8CC6259FB32F}"/>
+    <hyperlink ref="O17" r:id="rId88" display="1x GL: 400 - Color: MGN9 H" xr:uid="{850186EB-E7B5-4AB8-B1EF-F52B78ED8ACE}"/>
+    <hyperlink ref="K18" r:id="rId89" display="Ask for Precision Cut Frame Bundle" xr:uid="{075D7F8C-B182-4470-9B95-9854ED11B06A}"/>
+    <hyperlink ref="O52" r:id="rId90" display="1x TMC2209 x8" xr:uid="{4DE7C021-EFF7-4219-B85B-490FCDB3F4B7}"/>
+    <hyperlink ref="O58" r:id="rId91" display="1x ADXL345 Accelerometer" xr:uid="{C70186B3-EA3A-4686-90E6-7E2B397151A6}"/>
+    <hyperlink ref="O96" r:id="rId92" display="Klipper ONLY 1x Humidity Sensor" xr:uid="{2FB88C3A-5D05-4B8E-80F3-45376CE60E80}"/>
+    <hyperlink ref="K68" r:id="rId93" xr:uid="{4AC86807-7591-4FC0-B843-F75D7B196BAD}"/>
+    <hyperlink ref="K69" r:id="rId94" xr:uid="{E51B5839-CA14-434E-9C5C-2396BEBB99E8}"/>
+    <hyperlink ref="K70" r:id="rId95" display="TBD" xr:uid="{349B70BC-D928-4468-A28F-E77CA9C8C8C4}"/>
+  </hyperlinks>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="52" fitToWidth="0" orientation="portrait" r:id="rId96"/>
+  <drawing r:id="rId97"/>
+  <legacyDrawing r:id="rId98"/>
+  <tableParts count="1">
+    <tablePart r:id="rId99"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D87932-5553-487A-91AB-85381BD0931E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Z70"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="26" width="8.7109375" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="27">
+      <c r="A1" s="164" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="1"/>
+      <c r="C2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="C3" s="1"/>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="C5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" s="145" customFormat="1" ht="15.75">
+      <c r="A7" s="141"/>
+      <c r="B7" s="142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="141" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="146">
+        <f>J69</f>
+        <v>1292.05</v>
+      </c>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="144"/>
+    </row>
+    <row r="8" spans="1:26" s="14" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A8" s="124"/>
+      <c r="B8" s="125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="124" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="138">
+        <f>J70</f>
+        <v>1550.05</v>
+      </c>
+      <c r="K8" s="160"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+    </row>
+    <row r="9" spans="1:26" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A9" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="137" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="137" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="137" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="140" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="137" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="147" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="68">
+        <v>359</v>
+      </c>
+      <c r="F10" s="69">
+        <f t="shared" ref="F10:F14" si="0">G10*E10</f>
+        <v>359</v>
+      </c>
+      <c r="G10" s="69">
+        <v>1</v>
+      </c>
+      <c r="H10" s="70">
+        <v>7.26</v>
+      </c>
+      <c r="I10" s="69">
+        <v>1</v>
+      </c>
+      <c r="J10" s="148">
+        <v>8</v>
+      </c>
+      <c r="K10" s="108"/>
+      <c r="L10" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="101" t="s">
+        <v>314</v>
+      </c>
+      <c r="P10" s="84" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="29">
+        <f>E12</f>
+        <v>420</v>
+      </c>
+      <c r="F11" s="30">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="G11" s="30">
+        <v>1</v>
+      </c>
+      <c r="H11" s="31">
+        <v>9.5</v>
+      </c>
+      <c r="I11" s="30">
+        <v>1</v>
+      </c>
+      <c r="J11" s="150">
+        <f t="shared" ref="J11:J68" si="1">I11*H11</f>
+        <v>9.5</v>
+      </c>
+      <c r="K11" s="103"/>
+      <c r="L11" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="84" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="149" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="29">
+        <v>420</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+      <c r="G12" s="30">
+        <v>4</v>
+      </c>
+      <c r="H12" s="31">
+        <v>10.54</v>
+      </c>
+      <c r="I12" s="30">
+        <v>4</v>
+      </c>
+      <c r="J12" s="150">
+        <f t="shared" si="1"/>
+        <v>42.16</v>
+      </c>
+      <c r="K12" s="109"/>
+      <c r="L12" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="84" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="149" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="29">
+        <v>480</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" si="0"/>
+        <v>1920</v>
+      </c>
+      <c r="G13" s="30">
+        <v>4</v>
+      </c>
+      <c r="H13" s="31">
+        <v>11.121</v>
+      </c>
+      <c r="I13" s="30">
+        <v>4</v>
+      </c>
+      <c r="J13" s="150">
+        <f t="shared" si="1"/>
+        <v>44.484000000000002</v>
+      </c>
+      <c r="K13" s="103"/>
+      <c r="L13" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="84" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="149" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="29">
+        <v>750</v>
+      </c>
+      <c r="F14" s="30">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="G14" s="30">
+        <v>4</v>
+      </c>
+      <c r="H14" s="31">
+        <v>14.7</v>
+      </c>
+      <c r="I14" s="30">
+        <v>4</v>
+      </c>
+      <c r="J14" s="150">
+        <f t="shared" si="1"/>
+        <v>58.8</v>
+      </c>
+      <c r="K14" s="109"/>
+      <c r="L14" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="102" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="84" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="149" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30">
+        <v>42</v>
+      </c>
+      <c r="H15" s="31">
+        <v>5</v>
+      </c>
+      <c r="I15" s="30">
+        <v>5</v>
+      </c>
+      <c r="J15" s="150">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="K15" s="103"/>
+      <c r="L15" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="100" t="s">
+        <v>288</v>
+      </c>
+      <c r="P15" s="103" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="27">
+        <v>350</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="39">
+        <v>3</v>
+      </c>
+      <c r="H16" s="31">
+        <v>15.6</v>
+      </c>
+      <c r="I16" s="39">
+        <v>3</v>
+      </c>
+      <c r="J16" s="150">
+        <f>I16*H16</f>
+        <v>46.8</v>
+      </c>
+      <c r="K16" s="109"/>
+      <c r="L16" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="112" t="s">
+        <v>329</v>
+      </c>
+      <c r="P16" s="35"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="27">
+        <v>400</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="39">
+        <v>2</v>
+      </c>
+      <c r="H17" s="31">
+        <v>17.5</v>
+      </c>
+      <c r="I17" s="39">
+        <v>2</v>
+      </c>
+      <c r="J17" s="150">
+        <f>I17*H17</f>
+        <v>35</v>
+      </c>
+      <c r="K17" s="103"/>
+      <c r="L17" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="112" t="s">
+        <v>330</v>
+      </c>
+      <c r="P17" s="35"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A18" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="27">
+        <v>400</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="39">
+        <v>1</v>
+      </c>
+      <c r="H18" s="31">
+        <v>16</v>
+      </c>
+      <c r="I18" s="39">
+        <v>1</v>
+      </c>
+      <c r="J18" s="150">
+        <f>I18*H18</f>
+        <v>16</v>
+      </c>
+      <c r="K18" s="103"/>
+      <c r="L18" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="112" t="s">
+        <v>331</v>
+      </c>
+      <c r="P18" s="35"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="132" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="133" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="134">
+        <v>1</v>
+      </c>
+      <c r="H19" s="70">
+        <v>265</v>
+      </c>
+      <c r="I19" s="134"/>
+      <c r="J19" s="148">
+        <f>I19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="135" t="s">
+        <v>328</v>
+      </c>
+      <c r="L19" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="35"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A20" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="151" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="110" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="79">
+        <v>1</v>
+      </c>
+      <c r="H20" s="80">
+        <v>523</v>
+      </c>
+      <c r="I20" s="79">
+        <v>1</v>
+      </c>
+      <c r="J20" s="152">
+        <f t="shared" ref="J20" si="2">I20*H20</f>
+        <v>523</v>
+      </c>
+      <c r="K20" s="111" t="s">
+        <v>318</v>
+      </c>
+      <c r="L20" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="35"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="149" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="27">
+        <v>410</v>
+      </c>
+      <c r="F21" s="30">
+        <v>500</v>
+      </c>
+      <c r="G21" s="30">
+        <v>1</v>
+      </c>
+      <c r="H21" s="31">
+        <v>20</v>
+      </c>
+      <c r="I21" s="30">
+        <v>1</v>
+      </c>
+      <c r="J21" s="150">
+        <f>I21*H21</f>
+        <v>20</v>
+      </c>
+      <c r="K21" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="35"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="149" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="27">
+        <v>350</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30">
+        <v>1225</v>
+      </c>
+      <c r="H22" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="I22" s="30">
+        <v>1225</v>
+      </c>
+      <c r="J22" s="150">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="K22" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="35"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="149" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="97" t="s">
+        <v>313</v>
+      </c>
+      <c r="E23" s="27">
+        <v>330</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30">
+        <v>1</v>
+      </c>
+      <c r="H23" s="31">
+        <v>50</v>
+      </c>
+      <c r="I23" s="30">
+        <v>1</v>
+      </c>
+      <c r="J23" s="150">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K23" s="109" t="s">
+        <v>312</v>
+      </c>
+      <c r="L23" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="35"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="149" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="27">
+        <v>25</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30">
+        <v>5</v>
+      </c>
+      <c r="H24" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="I24" s="30">
+        <v>1</v>
+      </c>
+      <c r="J24" s="150">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="K24" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="35"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="149" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="27">
+        <v>40</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30">
+        <v>12</v>
+      </c>
+      <c r="H25" s="31">
+        <v>3</v>
+      </c>
+      <c r="I25" s="30">
+        <v>3</v>
+      </c>
+      <c r="J25" s="150">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K25" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="35"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="149" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="27">
+        <v>50</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30">
+        <v>6</v>
+      </c>
+      <c r="H26" s="31">
+        <v>3</v>
+      </c>
+      <c r="I26" s="30">
+        <v>2</v>
+      </c>
+      <c r="J26" s="150">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K26" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="35"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="149" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30">
+        <v>3</v>
+      </c>
+      <c r="H27" s="31">
+        <v>3</v>
+      </c>
+      <c r="I27" s="30">
+        <v>1</v>
+      </c>
+      <c r="J27" s="150">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K27" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="35"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="27">
+        <v>30</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30">
+        <v>3</v>
+      </c>
+      <c r="H28" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="I28" s="30">
+        <v>2</v>
+      </c>
+      <c r="J28" s="150">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K28" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="35"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="149" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="27">
+        <v>6</v>
+      </c>
+      <c r="H29" s="31">
+        <v>7.5</v>
+      </c>
+      <c r="I29" s="30">
+        <v>1</v>
+      </c>
+      <c r="J29" s="150">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="K29" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="35"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="27">
+        <v>21</v>
+      </c>
+      <c r="H30" s="31">
+        <v>1</v>
+      </c>
+      <c r="I30" s="39">
+        <v>1</v>
+      </c>
+      <c r="J30" s="150">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" s="40">
+        <v>934</v>
+      </c>
+      <c r="N30" s="40">
+        <v>4032</v>
+      </c>
+      <c r="O30" s="54"/>
+      <c r="P30" s="35"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="27">
+        <v>34</v>
+      </c>
+      <c r="H31" s="31">
+        <v>3</v>
+      </c>
+      <c r="I31" s="39">
+        <v>1</v>
+      </c>
+      <c r="J31" s="150">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K31" s="103" t="s">
+        <v>276</v>
+      </c>
+      <c r="L31" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="35"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="27">
+        <v>24</v>
+      </c>
+      <c r="H32" s="31">
+        <v>1</v>
+      </c>
+      <c r="I32" s="39">
+        <v>1</v>
+      </c>
+      <c r="J32" s="150">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40">
+        <v>7380</v>
+      </c>
+      <c r="O32" s="54"/>
+      <c r="P32" s="35"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="27">
+        <v>34</v>
+      </c>
+      <c r="H33" s="31">
+        <v>1</v>
+      </c>
+      <c r="I33" s="39">
+        <v>1</v>
+      </c>
+      <c r="J33" s="150">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="34">
+        <v>912</v>
+      </c>
+      <c r="N33" s="34"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="35"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="27">
+        <v>33</v>
+      </c>
+      <c r="H34" s="31">
+        <v>1</v>
+      </c>
+      <c r="I34" s="39">
+        <v>1</v>
+      </c>
+      <c r="J34" s="150">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40">
+        <v>7380</v>
+      </c>
+      <c r="O34" s="54"/>
+      <c r="P34" s="35"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="27">
+        <v>8</v>
+      </c>
+      <c r="H35" s="31">
+        <v>2</v>
+      </c>
+      <c r="I35" s="39">
+        <v>1</v>
+      </c>
+      <c r="J35" s="150">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K35" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="L35" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34">
+        <v>7380</v>
+      </c>
+      <c r="O35" s="54"/>
+      <c r="P35" s="35"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="27"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="27">
+        <v>3</v>
+      </c>
+      <c r="H36" s="31">
+        <v>4</v>
+      </c>
+      <c r="I36" s="39">
+        <v>3</v>
+      </c>
+      <c r="J36" s="150">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K36" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="L36" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="35"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="27">
+        <v>6</v>
+      </c>
+      <c r="H37" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="I37" s="39">
+        <v>1</v>
+      </c>
+      <c r="J37" s="150">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="K37" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="L37" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M37" s="34">
+        <v>934</v>
+      </c>
+      <c r="N37" s="34">
+        <v>4032</v>
+      </c>
+      <c r="O37" s="54"/>
+      <c r="P37" s="35"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="27">
+        <v>3</v>
+      </c>
+      <c r="H38" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="I38" s="39">
+        <v>1</v>
+      </c>
+      <c r="J38" s="150">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="K38" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="L38" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="40">
+        <v>985</v>
+      </c>
+      <c r="N38" s="40">
+        <v>10511</v>
+      </c>
+      <c r="O38" s="54"/>
+      <c r="P38" s="35"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="27">
+        <v>3</v>
+      </c>
+      <c r="H39" s="31">
+        <v>1</v>
+      </c>
+      <c r="I39" s="39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="150">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="L39" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M39" s="34">
+        <v>125</v>
+      </c>
+      <c r="N39" s="34">
+        <v>7089</v>
+      </c>
+      <c r="O39" s="54"/>
+      <c r="P39" s="35"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="27">
+        <v>3</v>
+      </c>
+      <c r="H40" s="31">
+        <v>2</v>
+      </c>
+      <c r="I40" s="39">
+        <v>1</v>
+      </c>
+      <c r="J40" s="150">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K40" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="L40" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40">
+        <v>7991</v>
+      </c>
+      <c r="O40" s="54"/>
+      <c r="P40" s="35"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="27">
+        <v>3</v>
+      </c>
+      <c r="H41" s="31">
+        <v>2</v>
+      </c>
+      <c r="I41" s="39">
+        <v>1</v>
+      </c>
+      <c r="J41" s="150">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K41" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="L41" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34">
+        <v>7991</v>
+      </c>
+      <c r="O41" s="54"/>
+      <c r="P41" s="35"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="27">
+        <v>4</v>
+      </c>
+      <c r="H42" s="31">
+        <v>2</v>
+      </c>
+      <c r="I42" s="39">
+        <v>1</v>
+      </c>
+      <c r="J42" s="150">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K42" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="L42" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M42" s="40">
+        <v>934</v>
+      </c>
+      <c r="N42" s="40">
+        <v>4032</v>
+      </c>
+      <c r="O42" s="54"/>
+      <c r="P42" s="35"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="27"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="27">
+        <v>30</v>
+      </c>
+      <c r="H43" s="31">
+        <v>11</v>
+      </c>
+      <c r="I43" s="39">
+        <v>1</v>
+      </c>
+      <c r="J43" s="150">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K43" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="L43" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="35"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="27"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="27">
+        <v>5</v>
+      </c>
+      <c r="H44" s="31">
+        <v>2.81</v>
+      </c>
+      <c r="I44" s="39">
+        <v>1</v>
+      </c>
+      <c r="J44" s="150">
+        <f t="shared" si="1"/>
+        <v>2.81</v>
+      </c>
+      <c r="K44" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="L44" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M44" s="40">
+        <v>985</v>
+      </c>
+      <c r="N44" s="40">
+        <v>10511</v>
+      </c>
+      <c r="O44" s="54"/>
+      <c r="P44" s="35"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="149" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="27">
+        <v>84</v>
+      </c>
+      <c r="H45" s="31">
+        <v>13.5</v>
+      </c>
+      <c r="I45" s="39">
+        <v>1</v>
+      </c>
+      <c r="J45" s="150">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="K45" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="L45" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="35"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="27">
+        <v>89</v>
+      </c>
+      <c r="H46" s="31">
+        <v>1.28</v>
+      </c>
+      <c r="I46" s="39">
+        <v>2</v>
+      </c>
+      <c r="J46" s="150">
+        <f t="shared" si="1"/>
+        <v>2.56</v>
+      </c>
+      <c r="K46" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="L46" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M46" s="40">
+        <v>125</v>
+      </c>
+      <c r="N46" s="40">
+        <v>7089</v>
+      </c>
+      <c r="O46" s="54"/>
+      <c r="P46" s="35"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="27">
+        <v>111</v>
+      </c>
+      <c r="H47" s="31">
+        <v>2.69</v>
+      </c>
+      <c r="I47" s="39">
+        <v>12</v>
+      </c>
+      <c r="J47" s="150">
+        <f t="shared" si="1"/>
+        <v>32.28</v>
+      </c>
+      <c r="K47" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="L47" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34">
+        <v>7380</v>
+      </c>
+      <c r="O47" s="54"/>
+      <c r="P47" s="35"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="27"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="27">
+        <v>7</v>
+      </c>
+      <c r="H48" s="31">
+        <v>8</v>
+      </c>
+      <c r="I48" s="41">
+        <v>1</v>
+      </c>
+      <c r="J48" s="150">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K48" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="L48" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40">
+        <v>7380</v>
+      </c>
+      <c r="O48" s="54"/>
+      <c r="P48" s="35"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="149" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="27">
+        <v>5</v>
+      </c>
+      <c r="H49" s="31">
+        <v>2.57</v>
+      </c>
+      <c r="I49" s="41">
+        <v>1</v>
+      </c>
+      <c r="J49" s="150">
+        <f t="shared" si="1"/>
+        <v>2.57</v>
+      </c>
+      <c r="K49" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="L49" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M49" s="34">
+        <v>933</v>
+      </c>
+      <c r="N49" s="34">
+        <v>4017</v>
+      </c>
+      <c r="O49" s="54"/>
+      <c r="P49" s="35"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="27"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="39">
+        <v>33</v>
+      </c>
+      <c r="H50" s="31">
+        <v>16</v>
+      </c>
+      <c r="I50" s="39">
+        <v>1</v>
+      </c>
+      <c r="J50" s="150">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K50" s="103" t="s">
+        <v>272</v>
+      </c>
+      <c r="L50" s="105" t="s">
+        <v>277</v>
+      </c>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="35"/>
+    </row>
+    <row r="51" spans="1:16" s="87" customFormat="1">
+      <c r="A51" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="155" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="99" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" s="99"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="154">
+        <v>0.74</v>
+      </c>
+      <c r="I51" s="153">
+        <v>1</v>
+      </c>
+      <c r="J51" s="150">
+        <f t="shared" si="1"/>
+        <v>0.74</v>
+      </c>
+      <c r="K51" s="161" t="s">
+        <v>297</v>
+      </c>
+      <c r="L51" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="M51" s="95" t="s">
+        <v>296</v>
+      </c>
+      <c r="N51" s="92"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="94"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="27"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="39">
+        <v>1</v>
+      </c>
+      <c r="H52" s="31">
+        <v>71</v>
+      </c>
+      <c r="I52" s="39">
+        <v>1</v>
+      </c>
+      <c r="J52" s="150">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="K52" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="L52" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="112" t="s">
+        <v>320</v>
+      </c>
+      <c r="P52" s="35"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="27"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="39">
+        <v>1</v>
+      </c>
+      <c r="H53" s="31">
+        <v>23</v>
+      </c>
+      <c r="I53" s="39">
+        <v>1</v>
+      </c>
+      <c r="J53" s="150">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="K53" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="L53" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="27"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="39">
+        <v>1</v>
+      </c>
+      <c r="H54" s="31">
+        <v>7.5</v>
+      </c>
+      <c r="I54" s="39">
+        <v>1</v>
+      </c>
+      <c r="J54" s="150">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="K54" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="L54" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="E55" s="27">
+        <v>300</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55" s="39">
+        <v>1</v>
+      </c>
+      <c r="H55" s="31">
+        <v>78.39</v>
+      </c>
+      <c r="I55" s="39">
+        <v>1</v>
+      </c>
+      <c r="J55" s="150">
+        <f t="shared" si="1"/>
+        <v>78.39</v>
+      </c>
+      <c r="K55" s="103" t="s">
+        <v>278</v>
+      </c>
+      <c r="L55" s="105" t="s">
+        <v>311</v>
+      </c>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="112" t="s">
+        <v>309</v>
+      </c>
+      <c r="P55" s="44"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="27"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="39">
+        <v>3</v>
+      </c>
+      <c r="H56" s="31">
+        <v>26</v>
+      </c>
+      <c r="I56" s="39">
+        <v>3</v>
+      </c>
+      <c r="J56" s="150">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="K56" s="103" t="s">
+        <v>303</v>
+      </c>
+      <c r="L56" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="112" t="s">
+        <v>138</v>
+      </c>
+      <c r="P56" s="44"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="27"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="39">
+        <v>1</v>
+      </c>
+      <c r="H57" s="31">
+        <v>20</v>
+      </c>
+      <c r="I57" s="39">
+        <v>1</v>
+      </c>
+      <c r="J57" s="150">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K57" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="L57" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="35"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="E58" s="27"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="39">
+        <v>1</v>
+      </c>
+      <c r="H58" s="31">
+        <v>2</v>
+      </c>
+      <c r="I58" s="39">
+        <v>1</v>
+      </c>
+      <c r="J58" s="150">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K58" s="109" t="s">
+        <v>283</v>
+      </c>
+      <c r="L58" s="105"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="112" t="s">
+        <v>319</v>
+      </c>
+      <c r="P58" s="35"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="27"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="39">
+        <v>1</v>
+      </c>
+      <c r="H59" s="31">
+        <v>3</v>
+      </c>
+      <c r="I59" s="39">
+        <v>1</v>
+      </c>
+      <c r="J59" s="150">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K59" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="L59" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="35"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="27"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="39">
+        <v>1</v>
+      </c>
+      <c r="H60" s="31">
+        <v>73.5</v>
+      </c>
+      <c r="I60" s="39">
+        <v>1</v>
+      </c>
+      <c r="J60" s="150">
+        <f t="shared" si="1"/>
+        <v>73.5</v>
+      </c>
+      <c r="K60" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="L60" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="35"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="27"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="39">
+        <v>1</v>
+      </c>
+      <c r="H61" s="31">
+        <v>70</v>
+      </c>
+      <c r="I61" s="39">
+        <v>1</v>
+      </c>
+      <c r="J61" s="150">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="K61" s="103" t="s">
+        <v>158</v>
+      </c>
+      <c r="L61" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="35"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="27">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="30">
+        <v>8000</v>
+      </c>
+      <c r="G62" s="39">
+        <v>8</v>
+      </c>
+      <c r="H62" s="31">
+        <v>59</v>
+      </c>
+      <c r="I62" s="39">
+        <v>1</v>
+      </c>
+      <c r="J62" s="150">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="K62" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="L62" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="M62" s="34"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="27"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="39">
+        <v>10</v>
+      </c>
+      <c r="H63" s="31">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I63" s="39">
+        <v>10</v>
+      </c>
+      <c r="J63" s="150">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="K63" s="103" t="s">
+        <v>166</v>
+      </c>
+      <c r="L63" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="35"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64" s="27"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="39">
+        <v>5</v>
+      </c>
+      <c r="H64" s="31">
+        <v>6</v>
+      </c>
+      <c r="I64" s="39">
+        <v>5</v>
+      </c>
+      <c r="J64" s="150">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K64" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="L64" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="35"/>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" s="27"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="39">
+        <v>5</v>
+      </c>
+      <c r="H65" s="31">
+        <v>4</v>
+      </c>
+      <c r="I65" s="39">
+        <v>5</v>
+      </c>
+      <c r="J65" s="150">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K65" s="103" t="s">
+        <v>172</v>
+      </c>
+      <c r="L65" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="35"/>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="27">
+        <v>200</v>
+      </c>
+      <c r="F66" s="30">
+        <v>600</v>
+      </c>
+      <c r="G66" s="39">
+        <v>3</v>
+      </c>
+      <c r="H66" s="31">
+        <v>16</v>
+      </c>
+      <c r="I66" s="39">
+        <v>3</v>
+      </c>
+      <c r="J66" s="150">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="K66" s="109" t="s">
+        <v>175</v>
+      </c>
+      <c r="L66" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="35"/>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" s="27"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="39">
+        <v>5</v>
+      </c>
+      <c r="H67" s="31">
+        <v>14.5</v>
+      </c>
+      <c r="I67" s="39">
+        <v>5</v>
+      </c>
+      <c r="J67" s="150">
+        <f t="shared" si="1"/>
+        <v>72.5</v>
+      </c>
+      <c r="K67" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="L67" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="35"/>
+    </row>
+    <row r="68" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A68" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" s="27">
+        <v>350</v>
+      </c>
+      <c r="F68" s="30"/>
+      <c r="G68" s="39">
+        <v>1</v>
+      </c>
+      <c r="H68" s="31">
+        <v>10</v>
+      </c>
+      <c r="I68" s="39">
+        <v>1</v>
+      </c>
+      <c r="J68" s="150">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K68" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="L68" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="35"/>
+    </row>
+    <row r="69" spans="1:26" ht="15.75">
+      <c r="A69" s="116"/>
+      <c r="B69" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="156" t="s">
+        <v>325</v>
+      </c>
+      <c r="D69" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="118"/>
+      <c r="F69" s="118"/>
+      <c r="G69" s="117"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="117"/>
+      <c r="J69" s="63">
+        <f>SUM(J21:J68)+H19</f>
+        <v>1292.05</v>
+      </c>
+      <c r="K69" s="163"/>
+      <c r="L69" s="121"/>
+      <c r="M69" s="122"/>
+      <c r="N69" s="122"/>
+      <c r="O69" s="119"/>
+      <c r="P69" s="123"/>
+    </row>
+    <row r="70" spans="1:26" s="14" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A70" s="124"/>
+      <c r="B70" s="125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="124" t="s">
+        <v>326</v>
+      </c>
+      <c r="D70" s="126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="126"/>
+      <c r="F70" s="126"/>
+      <c r="G70" s="126"/>
+      <c r="H70" s="126"/>
+      <c r="I70" s="127"/>
+      <c r="J70" s="128">
+        <f>SUM(J21:J68)+J20</f>
+        <v>1550.05</v>
+      </c>
+      <c r="K70" s="160"/>
+      <c r="L70" s="115"/>
+      <c r="M70" s="129"/>
+      <c r="N70" s="129"/>
+      <c r="O70" s="115"/>
+      <c r="P70" s="130"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
+      <c r="W70" s="13"/>
+      <c r="X70" s="13"/>
+      <c r="Y70" s="13"/>
+      <c r="Z70" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K21" r:id="rId1" xr:uid="{F066E46D-BCFC-4D5B-B9B3-DBC81F16953B}"/>
+    <hyperlink ref="K22" r:id="rId2" xr:uid="{2DAAEA58-4AD7-4AB3-8704-337E9D066033}"/>
+    <hyperlink ref="K23" r:id="rId3" display="Size: 310x310mm" xr:uid="{C28DDB5C-CD79-41CF-B8FE-365C68E16285}"/>
+    <hyperlink ref="K24" r:id="rId4" xr:uid="{1CF07662-B036-4349-AF94-7D094CBDC095}"/>
+    <hyperlink ref="K25" r:id="rId5" xr:uid="{89A3FE2F-E22A-4818-8730-5060A8089F93}"/>
+    <hyperlink ref="K26" r:id="rId6" xr:uid="{5035840F-BDCD-4770-A904-B088D8EF5074}"/>
+    <hyperlink ref="K27" r:id="rId7" xr:uid="{C00CB6DE-9817-4399-BC6B-EE258A64CDC7}"/>
+    <hyperlink ref="K28" r:id="rId8" xr:uid="{710F3A2B-C450-469C-BABD-0DCC41CDCEEA}"/>
+    <hyperlink ref="K29" r:id="rId9" xr:uid="{73E3DFBE-1D01-4929-B320-3A39CD9DC7EB}"/>
+    <hyperlink ref="K30" r:id="rId10" xr:uid="{32EBE8C5-0099-4929-82CD-0EE8276388BE}"/>
+    <hyperlink ref="K31" r:id="rId11" display="1x Size: 20-m3 50pcs" xr:uid="{98DAAE64-13B6-4398-8724-226E8F5C7184}"/>
+    <hyperlink ref="K32" r:id="rId12" xr:uid="{67C5E474-9049-4E20-BB35-9E58700B9161}"/>
+    <hyperlink ref="K33" r:id="rId13" xr:uid="{439DB739-C38B-4147-8EB4-D24E52BEDE93}"/>
+    <hyperlink ref="K34" r:id="rId14" xr:uid="{0908F3AF-2926-431D-B897-308EBF55D15F}"/>
+    <hyperlink ref="K35" r:id="rId15" xr:uid="{BA81F153-C8E1-4455-9119-E3861E12DF25}"/>
+    <hyperlink ref="K36" r:id="rId16" xr:uid="{BD28A263-7107-4C6A-B6E6-2D073351CC45}"/>
+    <hyperlink ref="K37" r:id="rId17" xr:uid="{2D6C9D6C-455E-4CCA-89AA-122A78011805}"/>
+    <hyperlink ref="K38" r:id="rId18" xr:uid="{E012C35B-EFDC-4676-BCB5-2A422A4597FE}"/>
+    <hyperlink ref="K39" r:id="rId19" xr:uid="{1234F1F4-E533-45FE-8326-0248458DD7B1}"/>
+    <hyperlink ref="K40" r:id="rId20" xr:uid="{D240080A-764B-4CE8-8FCD-13D49BB76944}"/>
+    <hyperlink ref="K41" r:id="rId21" xr:uid="{6F72624D-BD76-4CD1-9094-A579EACD91B9}"/>
+    <hyperlink ref="K42" r:id="rId22" xr:uid="{A1A89244-0DD8-486F-9CB2-7E277E8072AD}"/>
+    <hyperlink ref="K43" r:id="rId23" xr:uid="{EB192D1B-A5D2-4B0C-AC5B-6B9E79D884CF}"/>
+    <hyperlink ref="K44" r:id="rId24" xr:uid="{5351DCC1-8AA3-4FEB-953F-68B2EAE74CE5}"/>
+    <hyperlink ref="K45" r:id="rId25" xr:uid="{052452E0-8233-4BBB-8869-7AFE989E488F}"/>
+    <hyperlink ref="K46" r:id="rId26" xr:uid="{427F6E60-191E-4B4F-BCDC-207A1A31B6B8}"/>
+    <hyperlink ref="K47" r:id="rId27" xr:uid="{8B460353-607B-4F21-88E9-CBB5746F35DD}"/>
+    <hyperlink ref="K48" r:id="rId28" xr:uid="{8520CA20-3810-44BB-97C6-45C1D46BF179}"/>
+    <hyperlink ref="K49" r:id="rId29" xr:uid="{2C01ECA8-6913-4C1E-A356-7224BB262532}"/>
+    <hyperlink ref="K52" r:id="rId30" xr:uid="{FB40584C-AC2A-4E63-9567-70882C04D75C}"/>
+    <hyperlink ref="K53" r:id="rId31" xr:uid="{293378EF-DC47-4BF9-943F-511D25CC159B}"/>
+    <hyperlink ref="K54" r:id="rId32" xr:uid="{876FC08E-7373-4D50-8A73-EED4F84ECC33}"/>
+    <hyperlink ref="K55" r:id="rId33" xr:uid="{EC40CCCC-2E92-45C9-9FFA-E60BA9C24061}"/>
+    <hyperlink ref="O56" r:id="rId34" xr:uid="{323DD8F4-DCA2-4940-AF97-5E3FE15EB9CE}"/>
+    <hyperlink ref="K57" r:id="rId35" xr:uid="{F4DEEE0D-2539-4DD1-93FC-AE5799F3E68E}"/>
+    <hyperlink ref="K59" r:id="rId36" xr:uid="{C518760E-D4FE-4861-9A25-5E56A091583C}"/>
+    <hyperlink ref="K60" r:id="rId37" xr:uid="{EDE20B93-D21A-4862-B9A3-9738B9240D5F}"/>
+    <hyperlink ref="K61" r:id="rId38" xr:uid="{2DA1E9E9-C865-4048-880D-4417444087C7}"/>
+    <hyperlink ref="K62" r:id="rId39" xr:uid="{7A51AB87-B10D-4689-B1D1-5FF0124AF500}"/>
+    <hyperlink ref="K63" r:id="rId40" xr:uid="{9D200C6C-A517-4C9C-A21A-9DC2E390DAA3}"/>
+    <hyperlink ref="K64" r:id="rId41" xr:uid="{47F9E496-C149-4A24-801F-54B904AB3A36}"/>
+    <hyperlink ref="K65" r:id="rId42" xr:uid="{A4E59F70-4C18-4F39-9CED-F4DE41E7A21D}"/>
+    <hyperlink ref="K66" r:id="rId43" xr:uid="{C2CAB781-335E-482B-B6B3-FB7A885E53F4}"/>
+    <hyperlink ref="K67" r:id="rId44" xr:uid="{6AF7B405-50AF-4C27-80EC-C55D8D3B8A5E}"/>
+    <hyperlink ref="K68" r:id="rId45" xr:uid="{3AF9BCBE-3E00-45D0-BFE5-97538A5CB7A5}"/>
+    <hyperlink ref="K50" r:id="rId46" xr:uid="{DE195C77-57FF-470E-9B14-30EF674B14A3}"/>
+    <hyperlink ref="K58" r:id="rId47" xr:uid="{ACF9A6F0-F1BD-4B70-94F5-23600BDF62FF}"/>
+    <hyperlink ref="K51" r:id="rId48" display="M3 ss washer" xr:uid="{C96796FA-170C-4B96-835A-5A12E6D28E12}"/>
+    <hyperlink ref="K56" r:id="rId49" display="2x 164-0575" xr:uid="{BDBBCF47-CB2A-45CE-8594-0CC8032EC61D}"/>
+    <hyperlink ref="O55" r:id="rId50" display="1x 310mm 220V 750W" xr:uid="{22D9781D-6C9B-4D09-BEE4-165BE733A665}"/>
+    <hyperlink ref="O10" r:id="rId51" display="Color: 339 mm" xr:uid="{AE82C2C3-6FEF-4921-ABBF-A9DFFF26909A}"/>
+    <hyperlink ref="O11" r:id="rId52" xr:uid="{B9D6E141-F28D-48AE-8F33-A893505D6725}"/>
+    <hyperlink ref="O12" r:id="rId53" xr:uid="{8BAFF1FE-4DF5-4D77-A77B-8440683B418E}"/>
+    <hyperlink ref="O13" r:id="rId54" xr:uid="{71A50540-500B-41E9-BBD1-52FF21BDDD18}"/>
+    <hyperlink ref="O14" r:id="rId55" xr:uid="{4E256FC1-E72C-4391-B724-3AB2C9C92BFC}"/>
+    <hyperlink ref="P15" r:id="rId56" display="Color: 2040-8 hole" xr:uid="{6CF725B1-F27D-4D6C-9DD6-9B5098F5215D}"/>
+    <hyperlink ref="O15" r:id="rId57" display="Color: 10pcs 2028" xr:uid="{6304A0EC-8C2F-42E4-BFF7-DEB746D33A10}"/>
+    <hyperlink ref="O16" r:id="rId58" display="3x GL: 350 - Color: MGN12 H" xr:uid="{C4223CD1-7119-4415-B196-9A2ED61511E2}"/>
+    <hyperlink ref="O17" r:id="rId59" display="2x GL: 400 - Color: MGN12 H" xr:uid="{466356EB-FC0C-4341-93D7-F2B39EB3DE73}"/>
+    <hyperlink ref="O18" r:id="rId60" display="1x GL: 400 - Color: MGN9 H" xr:uid="{72774BAA-3958-482D-AA36-1A0D4F9A5306}"/>
+    <hyperlink ref="K19" r:id="rId61" display="Ask for Precision Cut Frame Bundle" xr:uid="{896CA208-7A02-41D0-AE3B-4BBBB4E92E61}"/>
+    <hyperlink ref="O52" r:id="rId62" display="1x TMC2209 x8" xr:uid="{66E24ED5-291C-47FE-8196-8C865DE86F5C}"/>
+    <hyperlink ref="O58" r:id="rId63" display="1x ADXL345 Accelerometer" xr:uid="{D5DA6BE4-FC05-451C-BA55-F77EA784A641}"/>
+  </hyperlinks>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId64"/>
+  <drawing r:id="rId65"/>
+  <legacyDrawing r:id="rId66"/>
+  <tableParts count="1">
+    <tablePart r:id="rId67"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B470B61-2315-40BE-8FD3-136DD40B87FF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Z112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="26" width="8.7109375" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="4"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:26" ht="26.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
@@ -2825,7 +11531,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="31">
-        <f t="shared" ref="J11:J66" si="1">I11*H11</f>
+        <f t="shared" ref="J11:J74" si="1">I11*H11</f>
         <v>9.5</v>
       </c>
       <c r="K11" s="36" t="s">
@@ -4809,7 +13515,7 @@
       <c r="O59" s="54"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16" s="4" customFormat="1">
+    <row r="60" spans="1:16">
       <c r="A60" s="26" t="s">
         <v>139</v>
       </c>
@@ -4846,7 +13552,7 @@
       <c r="O60" s="54"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16" s="4" customFormat="1">
+    <row r="61" spans="1:16">
       <c r="A61" s="26" t="s">
         <v>139</v>
       </c>
@@ -5103,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="31">
-        <f t="shared" ref="J67:J104" si="2">I67*H67</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K67" s="36" t="s">
@@ -5146,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="J68" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="K68" s="32" t="s">
@@ -5185,7 +13891,7 @@
         <v>10</v>
       </c>
       <c r="J69" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="K69" s="36" t="s">
@@ -5224,7 +13930,7 @@
         <v>5</v>
       </c>
       <c r="J70" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K70" s="36" t="s">
@@ -5263,7 +13969,7 @@
         <v>5</v>
       </c>
       <c r="J71" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K71" s="36" t="s">
@@ -5306,7 +14012,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="K72" s="32" t="s">
@@ -5345,7 +14051,7 @@
         <v>5</v>
       </c>
       <c r="J73" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
       <c r="K73" s="36" t="s">
@@ -5384,7 +14090,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K74" s="36" t="s">
@@ -5423,7 +14129,7 @@
         <v>2</v>
       </c>
       <c r="J75" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J75:J108" si="2">I75*H75</f>
         <v>40</v>
       </c>
       <c r="K75" s="32" t="s">
@@ -6663,7 +15369,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="31">
-        <f t="shared" ref="J105:J108" si="3">I105*H105</f>
+        <f t="shared" si="2"/>
         <v>3.96</v>
       </c>
       <c r="K105" s="32" t="s">
@@ -6679,7 +15385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:26" s="4" customFormat="1">
+    <row r="106" spans="1:26">
       <c r="A106" s="26" t="s">
         <v>206</v>
       </c>
@@ -6704,7 +15410,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="K106" s="36" t="s">
@@ -6743,7 +15449,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K107" s="32" t="s">
@@ -6784,7 +15490,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K108" s="36" t="s">
@@ -6842,7 +15548,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="110" spans="1:26" s="4" customFormat="1">
+    <row r="110" spans="1:26">
       <c r="A110" s="26" t="s">
         <v>206</v>
       </c>
@@ -6941,101 +15647,101 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K10" r:id="rId1" display="Color: 339 mm" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K15" r:id="rId6" display="Color: 10pcs 2028" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K19" r:id="rId7" display="Ask for Precision Cut Frame Bundle" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K22" r:id="rId10" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="K24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="K25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K30" r:id="rId18" display="1x Size: 20-m3 50pcs" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="K35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K38" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K39" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K40" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="K41" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="K43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K45" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="K46" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K47" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="K48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="K53" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K54" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="K56" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="K57" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="O58" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="K59" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K62" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="K63" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K64" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K65" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K66" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="K68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K70" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K71" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="K72" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="K73" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="K16" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="K17" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="K18" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="K82" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="K83" r:id="rId60" display="Color: Buffer 14inch 35cm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="K84" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="K85" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K86" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="K87" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="K88" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="K89" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="K90" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K91" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="K92" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="K93" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="K94" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="K95" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K96" r:id="rId73" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="K97" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="K98" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="K99" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="K100" r:id="rId77" display="1x Size: M3 - 30mm" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="K101" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="K102" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="K103" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="K104" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="K105" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="K107" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="K108" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="K109" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="K49" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="K106" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="O15" r:id="rId88" display="Color: 2040-8 hole" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="K60" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="K61" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="K110" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="K50" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="K51" r:id="rId93" display="M3 ss washer" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="K58" r:id="rId94" display="2x 164-0575" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="O57" r:id="rId95" display="1x 310mm 220V 750W" xr:uid="{6E7EA03F-E4E8-4DD1-88FA-53A949F0FE0C}"/>
+    <hyperlink ref="K10" r:id="rId1" display="Color: 339 mm" xr:uid="{2A3138D3-FAC0-4DEE-BDAC-6B7FFA0DBCF2}"/>
+    <hyperlink ref="K11" r:id="rId2" xr:uid="{C18BE174-818F-49E4-BEDD-2DD125B8F0E2}"/>
+    <hyperlink ref="K12" r:id="rId3" xr:uid="{D93BF816-B410-4432-AA5D-B4309D6ED315}"/>
+    <hyperlink ref="K13" r:id="rId4" xr:uid="{EB8E38F0-A09E-4E63-B0A0-106CB0928496}"/>
+    <hyperlink ref="K14" r:id="rId5" xr:uid="{76269F05-3462-4753-B6F5-94CEB737DBC1}"/>
+    <hyperlink ref="K15" r:id="rId6" display="Color: 10pcs 2028" xr:uid="{05B5DAC3-8191-446F-831D-7EFBA5417624}"/>
+    <hyperlink ref="K19" r:id="rId7" display="Ask for Precision Cut Frame Bundle" xr:uid="{B0BF01AA-040D-4064-80D4-9DC7F6A158AE}"/>
+    <hyperlink ref="K20" r:id="rId8" xr:uid="{F9015A7B-FC44-4DF8-AE25-8D1B1E16A300}"/>
+    <hyperlink ref="K21" r:id="rId9" xr:uid="{24EC8D81-FA96-48EB-8A42-A6AC0B4530DE}"/>
+    <hyperlink ref="K22" r:id="rId10" display="Size: 310x310mm" xr:uid="{51DAF9F4-5F83-4C56-9B66-DE2794905295}"/>
+    <hyperlink ref="K23" r:id="rId11" xr:uid="{141D3F83-B7A3-4923-9F78-4D79893ADE74}"/>
+    <hyperlink ref="K24" r:id="rId12" xr:uid="{B3884B4F-0AD8-4B72-A684-AF163FBBF4B9}"/>
+    <hyperlink ref="K25" r:id="rId13" xr:uid="{22964138-7CD5-4351-80B5-60DBCD469E1A}"/>
+    <hyperlink ref="K26" r:id="rId14" xr:uid="{03FAFC14-6A40-41C6-B675-0C6F426099DE}"/>
+    <hyperlink ref="K27" r:id="rId15" xr:uid="{B67ECA49-8DA2-426E-B970-036775B36BC2}"/>
+    <hyperlink ref="K28" r:id="rId16" xr:uid="{1AAD8D15-D5C4-4559-80DF-81A3FA677112}"/>
+    <hyperlink ref="K29" r:id="rId17" xr:uid="{8B5D2BDF-A3D6-4FFD-B1A3-B8058A51B49E}"/>
+    <hyperlink ref="K30" r:id="rId18" display="1x Size: 20-m3 50pcs" xr:uid="{7AADBF9A-D275-4A90-8F48-1E7CAE290E12}"/>
+    <hyperlink ref="K31" r:id="rId19" xr:uid="{C497BDED-B809-44DF-8EA9-344668E734AD}"/>
+    <hyperlink ref="K32" r:id="rId20" xr:uid="{6E94C0C8-77DE-4271-A84B-441A591F3E95}"/>
+    <hyperlink ref="K33" r:id="rId21" xr:uid="{E0E164A7-AC07-4824-87DF-29D2CCC37F67}"/>
+    <hyperlink ref="K34" r:id="rId22" xr:uid="{34381B65-E0B6-46E3-A1ED-E40DEBF11A7A}"/>
+    <hyperlink ref="K35" r:id="rId23" xr:uid="{7D84D9B3-F3BD-4A54-A3CB-6F76B77B8C6F}"/>
+    <hyperlink ref="K36" r:id="rId24" xr:uid="{6268F6CC-47B8-47FA-B583-192A7C8B541C}"/>
+    <hyperlink ref="K37" r:id="rId25" xr:uid="{C30E7791-67F0-447F-855B-151DA6B3E758}"/>
+    <hyperlink ref="K38" r:id="rId26" xr:uid="{055F1CB3-11A4-47D2-8F3A-D4B3B8809DA9}"/>
+    <hyperlink ref="K39" r:id="rId27" xr:uid="{CEAA98AD-B9FF-4F3D-8E90-F85A06E3D0C0}"/>
+    <hyperlink ref="K40" r:id="rId28" xr:uid="{B74718A4-5487-4835-8D3C-55C32F72C3F2}"/>
+    <hyperlink ref="K41" r:id="rId29" xr:uid="{DE259326-5A2B-4F0B-BC1D-58FA91B8E427}"/>
+    <hyperlink ref="K42" r:id="rId30" xr:uid="{771CB4A0-5871-48DA-9D10-DB52712D6FF5}"/>
+    <hyperlink ref="K43" r:id="rId31" xr:uid="{AF12F59E-D93B-410B-93A4-FDC7BD0BF66B}"/>
+    <hyperlink ref="K44" r:id="rId32" xr:uid="{BC7B0104-F4D4-4470-A8CD-D861C272BE6A}"/>
+    <hyperlink ref="K45" r:id="rId33" xr:uid="{F1FEC64F-D82D-4D95-9E23-8541C4DB94E6}"/>
+    <hyperlink ref="K46" r:id="rId34" xr:uid="{6458EF44-EB37-4B77-B6DA-30A1D66F41B3}"/>
+    <hyperlink ref="K47" r:id="rId35" xr:uid="{0B1B1611-FC3E-4403-8368-60B31708963C}"/>
+    <hyperlink ref="K48" r:id="rId36" xr:uid="{2D1B0B1A-024D-4F72-AADA-7DA9391AD643}"/>
+    <hyperlink ref="K53" r:id="rId37" xr:uid="{D1D466AA-BD82-466A-8FDA-2BE87EA75166}"/>
+    <hyperlink ref="K54" r:id="rId38" xr:uid="{482CBD7C-ADBB-4F76-9976-8A00841E1661}"/>
+    <hyperlink ref="K55" r:id="rId39" xr:uid="{ECD3AD34-8763-4762-A223-7D5F07F04D3F}"/>
+    <hyperlink ref="K56" r:id="rId40" xr:uid="{BDBD6418-4D0C-4DEF-88DF-C224B212C17C}"/>
+    <hyperlink ref="K57" r:id="rId41" xr:uid="{B0E63935-BB7E-4ECB-999D-2D8C30C41244}"/>
+    <hyperlink ref="O58" r:id="rId42" xr:uid="{8392E0FA-0D91-4801-9D16-C825B872FDDF}"/>
+    <hyperlink ref="K59" r:id="rId43" xr:uid="{A25CB42A-9D58-433C-B2D3-A1C7BD45FABF}"/>
+    <hyperlink ref="K62" r:id="rId44" xr:uid="{4CEC12BA-2D17-42E5-AE2E-B52BB753FF61}"/>
+    <hyperlink ref="K63" r:id="rId45" xr:uid="{D482F859-4D47-433C-9D22-72B4FC7BB8A4}"/>
+    <hyperlink ref="K64" r:id="rId46" xr:uid="{A7530693-ACD4-45CE-9420-D4111579688A}"/>
+    <hyperlink ref="K65" r:id="rId47" xr:uid="{BCCA0F7F-F22D-4946-A7A4-DCD0DFA87E53}"/>
+    <hyperlink ref="K66" r:id="rId48" xr:uid="{A9AEFCB0-45D3-4326-A023-6752AD01FE6C}"/>
+    <hyperlink ref="K67" r:id="rId49" xr:uid="{30402390-85A8-427D-8B53-A6738D5BC64F}"/>
+    <hyperlink ref="K68" r:id="rId50" xr:uid="{3FB15A17-851E-448B-859B-A8E087D2D0A6}"/>
+    <hyperlink ref="K69" r:id="rId51" xr:uid="{A61B4767-CC25-4B57-BD23-B348BFF07911}"/>
+    <hyperlink ref="K70" r:id="rId52" xr:uid="{9FE71889-DA8E-42DF-A269-4B260163473E}"/>
+    <hyperlink ref="K71" r:id="rId53" xr:uid="{B85BB92A-71DD-40D8-AF57-DACEDB86EE5D}"/>
+    <hyperlink ref="K72" r:id="rId54" xr:uid="{C680EE0C-CE80-44C4-B99C-CCD4969E36E7}"/>
+    <hyperlink ref="K73" r:id="rId55" xr:uid="{5E40E32A-986D-4EC5-95B4-2A7432EAEA0A}"/>
+    <hyperlink ref="K16" r:id="rId56" xr:uid="{0F6E3966-C07B-4DCA-B39A-22A2185BB365}"/>
+    <hyperlink ref="K17" r:id="rId57" xr:uid="{BF019768-E462-4B3A-B7E2-1B3038FF1579}"/>
+    <hyperlink ref="K18" r:id="rId58" xr:uid="{20CACAF2-A9F4-4297-8E44-657E2939B913}"/>
+    <hyperlink ref="K82" r:id="rId59" xr:uid="{F613448E-FC2D-4588-AD72-11D86FEF34E7}"/>
+    <hyperlink ref="K83" r:id="rId60" display="Color: Buffer 14inch 35cm" xr:uid="{D25E53FD-ADB5-4637-923A-59F41EF9DC42}"/>
+    <hyperlink ref="K84" r:id="rId61" xr:uid="{E26E588C-5629-4091-887C-1C2FFBF32A84}"/>
+    <hyperlink ref="K85" r:id="rId62" xr:uid="{CA967ABB-0765-4BD6-8493-A5D0D4514268}"/>
+    <hyperlink ref="K86" r:id="rId63" xr:uid="{F1ABB6D5-43CB-4727-91DC-70D90E90DC43}"/>
+    <hyperlink ref="K87" r:id="rId64" xr:uid="{5C756BA2-8767-4392-94DD-2A9112096F4C}"/>
+    <hyperlink ref="K88" r:id="rId65" xr:uid="{38C644B1-F04E-4C6B-972F-926FD96AC158}"/>
+    <hyperlink ref="K89" r:id="rId66" xr:uid="{25F4EECC-9177-4C22-BD07-7ED7671EA403}"/>
+    <hyperlink ref="K90" r:id="rId67" xr:uid="{6E42DED7-5754-403C-9E4D-D8ADFA9461DB}"/>
+    <hyperlink ref="K91" r:id="rId68" xr:uid="{7B37C8A3-D042-4CB0-A614-E95819B3F7BD}"/>
+    <hyperlink ref="K92" r:id="rId69" xr:uid="{165FFC03-C528-4D77-8055-A0FC210A5166}"/>
+    <hyperlink ref="K93" r:id="rId70" xr:uid="{AD39EF3E-C5E8-4191-A9FA-DCF1ABE25DF6}"/>
+    <hyperlink ref="K94" r:id="rId71" xr:uid="{CEAA880F-32ED-4B8F-B24E-70D9B2F71414}"/>
+    <hyperlink ref="K95" r:id="rId72" xr:uid="{F874ADBB-D57C-4CB7-9EB2-DC1BBA32C342}"/>
+    <hyperlink ref="K96" r:id="rId73" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{7C0EC0E3-E1CE-4188-A513-069E480B0E74}"/>
+    <hyperlink ref="K97" r:id="rId74" xr:uid="{3C2B00A5-AA3F-4E8B-950F-692542AC5FAC}"/>
+    <hyperlink ref="K98" r:id="rId75" xr:uid="{30628A9A-DC7D-4ADA-92A7-0AA80C8A731D}"/>
+    <hyperlink ref="K99" r:id="rId76" xr:uid="{C118C577-8A61-4E90-952C-53B77A80503F}"/>
+    <hyperlink ref="K100" r:id="rId77" display="1x Size: M3 - 30mm" xr:uid="{7EC30997-6E41-4223-87D4-9D0044C851AD}"/>
+    <hyperlink ref="K101" r:id="rId78" xr:uid="{1AA287C6-D16A-46D9-9647-1C13CC1B1692}"/>
+    <hyperlink ref="K102" r:id="rId79" xr:uid="{BB1F1C9D-76CA-40CD-9DD2-E4BF192FB4C0}"/>
+    <hyperlink ref="K103" r:id="rId80" xr:uid="{07EF339C-E3C8-40E4-8DE3-906FC4C79651}"/>
+    <hyperlink ref="K104" r:id="rId81" xr:uid="{504DD3EC-F275-467C-BD74-AE0C7F9D8392}"/>
+    <hyperlink ref="K105" r:id="rId82" xr:uid="{4073B3EC-CACC-4FA4-897E-5E4267823D16}"/>
+    <hyperlink ref="K107" r:id="rId83" xr:uid="{16FCFFE7-7827-4CCC-A2AF-D9C2218CA15C}"/>
+    <hyperlink ref="K108" r:id="rId84" xr:uid="{C792E99D-F985-49DF-AB7D-BA76ADB3D6B4}"/>
+    <hyperlink ref="K109" r:id="rId85" xr:uid="{D2437DC7-2D0A-4D4F-8249-C8429E53670D}"/>
+    <hyperlink ref="K49" r:id="rId86" xr:uid="{E10E3CB2-AD1F-479A-BF57-12F4B2D6CFD1}"/>
+    <hyperlink ref="K106" r:id="rId87" xr:uid="{EED4973E-93BA-49F5-BCE4-C766E7ADD695}"/>
+    <hyperlink ref="O15" r:id="rId88" display="Color: 2040-8 hole" xr:uid="{37D5160B-F902-467F-A2AC-2BFCDC84B4A9}"/>
+    <hyperlink ref="K60" r:id="rId89" xr:uid="{B9804F4A-1C7F-4665-9F0A-B2D28EAE86C8}"/>
+    <hyperlink ref="K61" r:id="rId90" xr:uid="{7388F833-973F-4D22-9167-25C0EB9743A8}"/>
+    <hyperlink ref="K110" r:id="rId91" xr:uid="{45D1AB7F-D024-4BAE-8665-7D0F10ED21AA}"/>
+    <hyperlink ref="K50" r:id="rId92" xr:uid="{69290CF2-E33F-43EA-BC6E-31BFAFD8F0B6}"/>
+    <hyperlink ref="K51" r:id="rId93" display="M3 ss washer" xr:uid="{B661B34F-C132-476D-BF5F-8984F0897077}"/>
+    <hyperlink ref="K58" r:id="rId94" display="2x 164-0575" xr:uid="{176DC9BB-12F3-4D3B-8AB2-DD4FBB5B9CC1}"/>
+    <hyperlink ref="O57" r:id="rId95" display="1x 310mm 220V 750W" xr:uid="{98DBFFF2-758F-4BB4-841F-73014A955637}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId96"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM RC-08.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM RC-08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A50EC1D0-D101-4E1B-B4A2-91BA03E61D82}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1336B984-D889-4DB8-A943-91D0A57AD55D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Valkyrie Final Stage - WIP'!$A$9:$N$112</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Valkyrie Stage-0'!$A$9:$N$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$8:$N$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$8:$N$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -321,6 +321,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{C0C2ED24-C03E-4F52-96F4-0C8F7427CDB5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+130C temp limit</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D52" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
@@ -380,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K66" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="K67" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -396,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="K72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -420,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P73" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P74" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -433,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P74" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="P75" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -446,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P75" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="P76" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -459,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P76" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="P77" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -472,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P77" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="P78" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -485,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P81" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="P82" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -498,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P82" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="P83" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -511,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P83" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="P84" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -524,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P86" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="P87" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -537,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P87" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="P88" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -550,7 +574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P88" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="P89" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -563,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P89" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="P90" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -576,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P90" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="P91" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -589,7 +613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P91" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="P92" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -602,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P92" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="P93" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -615,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P94" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="P95" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1529,7 +1553,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="349">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -2594,6 +2618,21 @@
   </si>
   <si>
     <t>Project Valkyrie - Stage-I</t>
+  </si>
+  <si>
+    <t>Thermistor</t>
+  </si>
+  <si>
+    <t>PT1000 Thermistor Up to 450C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x PT1000 Thermistor Cartridge </t>
+  </si>
+  <si>
+    <t>WB 150C-Mag Sheet</t>
+  </si>
+  <si>
+    <t>1x Size: (130C)330x330mm</t>
   </si>
 </sst>
 </file>
@@ -4137,8 +4176,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:P98" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
-  <autoFilter ref="A8:P98" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:P99" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
+  <autoFilter ref="A8:P99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="55"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="54"/>
@@ -4412,7 +4451,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -4507,8 +4546,8 @@
       <c r="H6" s="143"/>
       <c r="I6" s="143"/>
       <c r="J6" s="146">
-        <f>J99</f>
-        <v>1681.7499999999998</v>
+        <f>J100</f>
+        <v>1695.2499999999998</v>
       </c>
       <c r="K6" s="143"/>
       <c r="L6" s="143"/>
@@ -4534,8 +4573,8 @@
       <c r="H7" s="126"/>
       <c r="I7" s="127"/>
       <c r="J7" s="138">
-        <f>J100</f>
-        <v>1939.7499999999998</v>
+        <f>J101</f>
+        <v>1953.2499999999998</v>
       </c>
       <c r="K7" s="126"/>
       <c r="L7" s="115"/>
@@ -4690,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="150">
-        <f t="shared" ref="J10:J60" si="1">I10*H10</f>
+        <f t="shared" ref="J10:J61" si="1">I10*H10</f>
         <v>9.5</v>
       </c>
       <c r="K10" s="103"/>
@@ -5198,15 +5237,17 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K22" s="32" t="s">
-        <v>312</v>
+      <c r="K22" s="36" t="s">
+        <v>348</v>
       </c>
       <c r="L22" s="33" t="s">
         <v>49</v>
       </c>
       <c r="M22" s="34"/>
       <c r="N22" s="34"/>
-      <c r="O22" s="54"/>
+      <c r="O22" s="112" t="s">
+        <v>347</v>
+      </c>
       <c r="P22" s="35"/>
     </row>
     <row r="23" spans="1:16">
@@ -6753,7 +6794,7 @@
       <c r="O60" s="54"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" s="4" customFormat="1">
       <c r="A61" s="26" t="s">
         <v>139</v>
       </c>
@@ -6761,10 +6802,10 @@
         <v>147</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>147</v>
+        <v>344</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>157</v>
+        <v>345</v>
       </c>
       <c r="E61" s="27"/>
       <c r="F61" s="30"/>
@@ -6772,66 +6813,60 @@
         <v>1</v>
       </c>
       <c r="H61" s="31">
-        <v>70</v>
+        <v>13.5</v>
       </c>
       <c r="I61" s="39">
         <v>1</v>
       </c>
       <c r="J61" s="150">
-        <f t="shared" ref="J61:J93" si="3">I61*H61</f>
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>13.5</v>
       </c>
       <c r="K61" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="L61" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
+        <v>346</v>
+      </c>
+      <c r="L61" s="33"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
       <c r="O61" s="54"/>
       <c r="P61" s="35"/>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="26" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="E62" s="27">
-        <v>1000</v>
-      </c>
-      <c r="F62" s="30">
-        <v>8000</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E62" s="27"/>
+      <c r="F62" s="30"/>
       <c r="G62" s="39">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H62" s="31">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="I62" s="39">
         <v>1</v>
       </c>
       <c r="J62" s="150">
-        <f t="shared" si="3"/>
-        <v>59</v>
-      </c>
-      <c r="K62" s="32" t="s">
-        <v>163</v>
+        <f t="shared" ref="J62:J94" si="3">I62*H62</f>
+        <v>70</v>
+      </c>
+      <c r="K62" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="L62" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
+        <v>159</v>
+      </c>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
       <c r="O62" s="54"/>
       <c r="P62" s="35"/>
     </row>
@@ -6843,34 +6878,38 @@
         <v>160</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63" s="27"/>
-      <c r="F63" s="30"/>
+        <v>162</v>
+      </c>
+      <c r="E63" s="27">
+        <v>1000</v>
+      </c>
+      <c r="F63" s="30">
+        <v>8000</v>
+      </c>
       <c r="G63" s="39">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H63" s="31">
-        <v>4.0999999999999996</v>
+        <v>59</v>
       </c>
       <c r="I63" s="39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J63" s="150">
         <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="K63" s="36" t="s">
-        <v>166</v>
+        <v>59</v>
+      </c>
+      <c r="K63" s="32" t="s">
+        <v>163</v>
       </c>
       <c r="L63" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
+        <v>135</v>
+      </c>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
       <c r="O63" s="54"/>
       <c r="P63" s="35"/>
     </row>
@@ -6885,31 +6924,31 @@
         <v>164</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E64" s="27"/>
       <c r="F64" s="30"/>
       <c r="G64" s="39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H64" s="31">
-        <v>6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I64" s="39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J64" s="150">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K64" s="36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L64" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
       <c r="O64" s="54"/>
       <c r="P64" s="35"/>
     </row>
@@ -6921,10 +6960,10 @@
         <v>160</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E65" s="27"/>
       <c r="F65" s="30"/>
@@ -6932,23 +6971,23 @@
         <v>5</v>
       </c>
       <c r="H65" s="31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I65" s="39">
         <v>5</v>
       </c>
       <c r="J65" s="150">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K65" s="36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L65" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
       <c r="O65" s="54"/>
       <c r="P65" s="35"/>
     </row>
@@ -6960,38 +6999,34 @@
         <v>160</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E66" s="27">
-        <v>200</v>
-      </c>
-      <c r="F66" s="30">
-        <v>600</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E66" s="27"/>
+      <c r="F66" s="30"/>
       <c r="G66" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H66" s="31">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I66" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J66" s="150">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="K66" s="32" t="s">
-        <v>175</v>
+        <v>20</v>
+      </c>
+      <c r="K66" s="36" t="s">
+        <v>172</v>
       </c>
       <c r="L66" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
+        <v>167</v>
+      </c>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
       <c r="O66" s="54"/>
       <c r="P66" s="35"/>
     </row>
@@ -7003,49 +7038,53 @@
         <v>160</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="E67" s="27"/>
-      <c r="F67" s="30"/>
+        <v>174</v>
+      </c>
+      <c r="E67" s="27">
+        <v>200</v>
+      </c>
+      <c r="F67" s="30">
+        <v>600</v>
+      </c>
       <c r="G67" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H67" s="31">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="I67" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J67" s="150">
         <f t="shared" si="3"/>
-        <v>72.5</v>
-      </c>
-      <c r="K67" s="36" t="s">
-        <v>179</v>
+        <v>48</v>
+      </c>
+      <c r="K67" s="32" t="s">
+        <v>175</v>
       </c>
       <c r="L67" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="56"/>
+        <v>176</v>
+      </c>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="54"/>
       <c r="P67" s="35"/>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="26" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="D68" s="38" t="s">
-        <v>301</v>
+        <v>178</v>
       </c>
       <c r="E68" s="27"/>
       <c r="F68" s="30"/>
@@ -7053,23 +7092,23 @@
         <v>5</v>
       </c>
       <c r="H68" s="31">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="I68" s="39">
         <v>5</v>
       </c>
       <c r="J68" s="150">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>72.5</v>
       </c>
       <c r="K68" s="36" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="L68" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="M68" s="34"/>
-      <c r="N68" s="34"/>
+        <v>180</v>
+      </c>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
       <c r="O68" s="56"/>
       <c r="P68" s="35"/>
     </row>
@@ -7078,13 +7117,13 @@
         <v>199</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>273</v>
+        <v>200</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>301</v>
       </c>
       <c r="E69" s="27"/>
       <c r="F69" s="30"/>
@@ -7092,14 +7131,14 @@
         <v>5</v>
       </c>
       <c r="H69" s="31">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I69" s="39">
         <v>5</v>
       </c>
       <c r="J69" s="150">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K69" s="36" t="s">
         <v>192</v>
@@ -7107,8 +7146,8 @@
       <c r="L69" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
       <c r="O69" s="56"/>
       <c r="P69" s="35"/>
     </row>
@@ -7119,165 +7158,160 @@
       <c r="B70" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="C70" s="42" t="s">
-        <v>322</v>
+      <c r="C70" s="26" t="s">
+        <v>202</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="E70" s="27">
-        <v>300</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="E70" s="27"/>
       <c r="F70" s="30"/>
       <c r="G70" s="39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H70" s="31">
         <v>25</v>
       </c>
       <c r="I70" s="39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J70" s="150">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K70" s="36" t="s">
-        <v>324</v>
+        <v>192</v>
       </c>
       <c r="L70" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="M70" s="34"/>
-      <c r="N70" s="34"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
       <c r="O70" s="56"/>
       <c r="P70" s="35"/>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="26" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>204</v>
+        <v>201</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>323</v>
       </c>
       <c r="E71" s="27">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F71" s="30"/>
       <c r="G71" s="39">
         <v>1</v>
       </c>
       <c r="H71" s="31">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I71" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" s="150">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K71" s="36" t="s">
-        <v>205</v>
+        <v>324</v>
       </c>
       <c r="L71" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="M71" s="40"/>
-      <c r="N71" s="40"/>
-      <c r="O71" s="57"/>
+        <v>192</v>
+      </c>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="56"/>
       <c r="P71" s="35"/>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="26" t="s">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E72" s="27">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="F72" s="30"/>
       <c r="G72" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" s="31">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I72" s="39">
         <v>1</v>
       </c>
       <c r="J72" s="150">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K72" s="36" t="s">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="L72" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
-      <c r="O72" s="56"/>
-      <c r="P72" s="45"/>
+        <v>167</v>
+      </c>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="57"/>
+      <c r="P72" s="35"/>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="26" t="s">
         <v>206</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="E73" s="27"/>
+        <v>207</v>
+      </c>
+      <c r="E73" s="27">
+        <v>400</v>
+      </c>
       <c r="F73" s="30"/>
       <c r="G73" s="39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H73" s="31">
-        <f>2.28</f>
-        <v>2.2799999999999998</v>
+        <v>24</v>
       </c>
       <c r="I73" s="39">
         <v>1</v>
       </c>
       <c r="J73" s="150">
         <f t="shared" si="3"/>
-        <v>2.2799999999999998</v>
+        <v>24</v>
       </c>
       <c r="K73" s="36" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="L73" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="M73" s="40">
-        <v>7991</v>
-      </c>
-      <c r="N73" s="40"/>
+        <v>208</v>
+      </c>
+      <c r="M73" s="34"/>
+      <c r="N73" s="34"/>
       <c r="O73" s="56"/>
-      <c r="P73" s="44" t="s">
-        <v>22</v>
-      </c>
+      <c r="P73" s="45"/>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="26" t="s">
@@ -7290,35 +7324,35 @@
         <v>76</v>
       </c>
       <c r="D74" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E74" s="27"/>
       <c r="F74" s="30"/>
       <c r="G74" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H74" s="31">
-        <f>4.51</f>
-        <v>4.51</v>
+        <f>2.28</f>
+        <v>2.2799999999999998</v>
       </c>
       <c r="I74" s="39">
         <v>1</v>
       </c>
       <c r="J74" s="150">
         <f t="shared" si="3"/>
-        <v>4.51</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="K74" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L74" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="M74" s="34"/>
-      <c r="N74" s="34">
-        <v>7380</v>
-      </c>
-      <c r="O74" s="58"/>
+      <c r="M74" s="40">
+        <v>7991</v>
+      </c>
+      <c r="N74" s="40"/>
+      <c r="O74" s="56"/>
       <c r="P74" s="44" t="s">
         <v>22</v>
       </c>
@@ -7331,36 +7365,36 @@
         <v>71</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D75" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E75" s="27"/>
       <c r="F75" s="30"/>
       <c r="G75" s="39">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H75" s="31">
-        <f>0.49</f>
-        <v>0.49</v>
+        <f>4.51</f>
+        <v>4.51</v>
       </c>
       <c r="I75" s="39">
         <v>1</v>
       </c>
       <c r="J75" s="150">
         <f t="shared" si="3"/>
-        <v>0.49</v>
+        <v>4.51</v>
       </c>
       <c r="K75" s="36" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L75" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="M75" s="40"/>
-      <c r="N75" s="40">
-        <v>10511</v>
+      <c r="M75" s="34"/>
+      <c r="N75" s="34">
+        <v>7380</v>
       </c>
       <c r="O75" s="58"/>
       <c r="P75" s="44" t="s">
@@ -7375,38 +7409,38 @@
         <v>71</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="E76" s="27"/>
       <c r="F76" s="30"/>
       <c r="G76" s="39">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H76" s="31">
-        <f>0.99</f>
-        <v>0.99</v>
+        <f>0.49</f>
+        <v>0.49</v>
       </c>
       <c r="I76" s="39">
         <v>1</v>
       </c>
       <c r="J76" s="150">
         <f t="shared" si="3"/>
-        <v>0.99</v>
-      </c>
-      <c r="K76" s="32" t="s">
-        <v>215</v>
+        <v>0.49</v>
+      </c>
+      <c r="K76" s="36" t="s">
+        <v>214</v>
       </c>
       <c r="L76" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="M76" s="34"/>
-      <c r="N76" s="34">
-        <v>7380</v>
-      </c>
-      <c r="O76" s="56"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40">
+        <v>10511</v>
+      </c>
+      <c r="O76" s="58"/>
       <c r="P76" s="44" t="s">
         <v>22</v>
       </c>
@@ -7419,10 +7453,10 @@
         <v>71</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="E77" s="27"/>
       <c r="F77" s="30"/>
@@ -7430,25 +7464,25 @@
         <v>3</v>
       </c>
       <c r="H77" s="31">
-        <f>5.01</f>
-        <v>5.01</v>
+        <f>0.99</f>
+        <v>0.99</v>
       </c>
       <c r="I77" s="39">
         <v>1</v>
       </c>
       <c r="J77" s="150">
         <f t="shared" si="3"/>
-        <v>5.01</v>
-      </c>
-      <c r="K77" s="36" t="s">
-        <v>217</v>
+        <v>0.99</v>
+      </c>
+      <c r="K77" s="32" t="s">
+        <v>215</v>
       </c>
       <c r="L77" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="M77" s="40"/>
-      <c r="N77" s="40">
-        <v>10511</v>
+        <v>54</v>
+      </c>
+      <c r="M77" s="34"/>
+      <c r="N77" s="34">
+        <v>7380</v>
       </c>
       <c r="O77" s="56"/>
       <c r="P77" s="44" t="s">
@@ -7463,37 +7497,41 @@
         <v>71</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E78" s="27"/>
       <c r="F78" s="30"/>
       <c r="G78" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H78" s="31">
-        <f>13.5</f>
-        <v>13.5</v>
+        <f>5.01</f>
+        <v>5.01</v>
       </c>
       <c r="I78" s="39">
         <v>1</v>
       </c>
       <c r="J78" s="150">
         <f t="shared" si="3"/>
-        <v>13.5</v>
-      </c>
-      <c r="K78" s="32" t="s">
-        <v>220</v>
+        <v>5.01</v>
+      </c>
+      <c r="K78" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="L78" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="M78" s="34"/>
-      <c r="N78" s="34"/>
-      <c r="O78" s="58"/>
-      <c r="P78" s="35"/>
+        <v>218</v>
+      </c>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40">
+        <v>10511</v>
+      </c>
+      <c r="O78" s="56"/>
+      <c r="P78" s="44" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="26" t="s">
@@ -7503,10 +7541,10 @@
         <v>71</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E79" s="27"/>
       <c r="F79" s="30"/>
@@ -7514,25 +7552,25 @@
         <v>1</v>
       </c>
       <c r="H79" s="31">
-        <f>2.03+1.59</f>
-        <v>3.62</v>
+        <f>13.5</f>
+        <v>13.5</v>
       </c>
       <c r="I79" s="39">
         <v>1</v>
       </c>
       <c r="J79" s="150">
         <f t="shared" si="3"/>
-        <v>3.62</v>
-      </c>
-      <c r="K79" s="36" t="s">
-        <v>223</v>
+        <v>13.5</v>
+      </c>
+      <c r="K79" s="32" t="s">
+        <v>220</v>
       </c>
       <c r="L79" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="M79" s="40"/>
-      <c r="N79" s="40"/>
-      <c r="O79" s="56"/>
+        <v>54</v>
+      </c>
+      <c r="M79" s="34"/>
+      <c r="N79" s="34"/>
+      <c r="O79" s="58"/>
       <c r="P79" s="35"/>
     </row>
     <row r="80" spans="1:16">
@@ -7540,13 +7578,13 @@
         <v>206</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D80" s="38" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E80" s="27"/>
       <c r="F80" s="30"/>
@@ -7554,23 +7592,24 @@
         <v>1</v>
       </c>
       <c r="H80" s="31">
-        <v>3</v>
+        <f>2.03+1.59</f>
+        <v>3.62</v>
       </c>
       <c r="I80" s="39">
         <v>1</v>
       </c>
       <c r="J80" s="150">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="K80" s="36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L80" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="M80" s="34"/>
-      <c r="N80" s="34"/>
+        <v>336</v>
+      </c>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
       <c r="O80" s="56"/>
       <c r="P80" s="35"/>
     </row>
@@ -7579,13 +7618,13 @@
         <v>206</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="D81" s="38" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E81" s="27"/>
       <c r="F81" s="30"/>
@@ -7593,28 +7632,25 @@
         <v>1</v>
       </c>
       <c r="H81" s="31">
-        <f>3.11+1.67</f>
-        <v>4.7799999999999994</v>
+        <v>3</v>
       </c>
       <c r="I81" s="39">
         <v>1</v>
       </c>
       <c r="J81" s="150">
         <f t="shared" si="3"/>
-        <v>4.7799999999999994</v>
+        <v>3</v>
       </c>
       <c r="K81" s="36" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L81" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="M81" s="40"/>
-      <c r="N81" s="40"/>
+        <v>228</v>
+      </c>
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
       <c r="O81" s="56"/>
-      <c r="P81" s="44" t="s">
-        <v>22</v>
-      </c>
+      <c r="P81" s="35"/>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="26" t="s">
@@ -7624,10 +7660,10 @@
         <v>71</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="D82" s="38" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E82" s="27"/>
       <c r="F82" s="30"/>
@@ -7635,25 +7671,24 @@
         <v>1</v>
       </c>
       <c r="H82" s="31">
-        <v>2</v>
+        <f>3.11+1.67</f>
+        <v>4.7799999999999994</v>
       </c>
       <c r="I82" s="39">
         <v>1</v>
       </c>
       <c r="J82" s="150">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K82" s="32" t="s">
-        <v>233</v>
+        <v>4.7799999999999994</v>
+      </c>
+      <c r="K82" s="36" t="s">
+        <v>230</v>
       </c>
       <c r="L82" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="M82" s="34">
-        <v>7991</v>
-      </c>
-      <c r="N82" s="34"/>
+        <v>231</v>
+      </c>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
       <c r="O82" s="56"/>
       <c r="P82" s="44" t="s">
         <v>22</v>
@@ -7670,34 +7705,33 @@
         <v>76</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E83" s="27"/>
       <c r="F83" s="30"/>
       <c r="G83" s="39">
+        <v>1</v>
+      </c>
+      <c r="H83" s="31">
         <v>2</v>
-      </c>
-      <c r="H83" s="31">
-        <f>2.5</f>
-        <v>2.5</v>
       </c>
       <c r="I83" s="39">
         <v>1</v>
       </c>
       <c r="J83" s="150">
         <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="K83" s="36" t="s">
-        <v>235</v>
+        <v>2</v>
+      </c>
+      <c r="K83" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="L83" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="M83" s="40">
+      <c r="M83" s="34">
         <v>7991</v>
       </c>
-      <c r="N83" s="40"/>
+      <c r="N83" s="34"/>
       <c r="O83" s="56"/>
       <c r="P83" s="44" t="s">
         <v>22</v>
@@ -7711,10 +7745,10 @@
         <v>71</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E84" s="27"/>
       <c r="F84" s="30"/>
@@ -7722,26 +7756,30 @@
         <v>2</v>
       </c>
       <c r="H84" s="31">
-        <f>(2.8+1.51)</f>
-        <v>4.3099999999999996</v>
+        <f>2.5</f>
+        <v>2.5</v>
       </c>
       <c r="I84" s="39">
         <v>1</v>
       </c>
       <c r="J84" s="150">
         <f t="shared" si="3"/>
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="K84" s="32" t="s">
-        <v>238</v>
+        <v>2.5</v>
+      </c>
+      <c r="K84" s="36" t="s">
+        <v>235</v>
       </c>
       <c r="L84" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="M84" s="34"/>
-      <c r="N84" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="M84" s="40">
+        <v>7991</v>
+      </c>
+      <c r="N84" s="40"/>
       <c r="O84" s="56"/>
-      <c r="P84" s="35"/>
+      <c r="P84" s="44" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="26" t="s">
@@ -7751,35 +7789,35 @@
         <v>71</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E85" s="27"/>
       <c r="F85" s="30"/>
       <c r="G85" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" s="31">
-        <f>1.72</f>
-        <v>1.72</v>
+        <f>(2.8+1.51)</f>
+        <v>4.3099999999999996</v>
       </c>
       <c r="I85" s="39">
         <v>1</v>
       </c>
       <c r="J85" s="150">
         <f t="shared" si="3"/>
-        <v>1.72</v>
-      </c>
-      <c r="K85" s="36" t="s">
-        <v>305</v>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="K85" s="32" t="s">
+        <v>238</v>
       </c>
       <c r="L85" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="M85" s="40"/>
-      <c r="N85" s="40"/>
+        <v>239</v>
+      </c>
+      <c r="M85" s="34"/>
+      <c r="N85" s="34"/>
       <c r="O85" s="56"/>
       <c r="P85" s="35"/>
     </row>
@@ -7791,10 +7829,10 @@
         <v>71</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>67</v>
+        <v>240</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E86" s="27"/>
       <c r="F86" s="30"/>
@@ -7802,28 +7840,26 @@
         <v>1</v>
       </c>
       <c r="H86" s="31">
-        <f>2.44</f>
-        <v>2.44</v>
+        <f>1.72</f>
+        <v>1.72</v>
       </c>
       <c r="I86" s="39">
         <v>1</v>
       </c>
       <c r="J86" s="150">
         <f t="shared" si="3"/>
-        <v>2.44</v>
+        <v>1.72</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="L86" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="M86" s="34"/>
-      <c r="N86" s="34"/>
+        <v>335</v>
+      </c>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
       <c r="O86" s="56"/>
-      <c r="P86" s="44" t="s">
-        <v>22</v>
-      </c>
+      <c r="P86" s="35"/>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="26" t="s">
@@ -7833,36 +7869,36 @@
         <v>71</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>245</v>
+        <v>67</v>
       </c>
       <c r="D87" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E87" s="27"/>
       <c r="F87" s="30"/>
       <c r="G87" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H87" s="31">
-        <f>2.38</f>
-        <v>2.38</v>
+        <f>2.44</f>
+        <v>2.44</v>
       </c>
       <c r="I87" s="39">
         <v>1</v>
       </c>
       <c r="J87" s="150">
         <f t="shared" si="3"/>
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="K87" s="36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L87" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="M87" s="40"/>
-      <c r="N87" s="40"/>
-      <c r="O87" s="58"/>
+        <v>218</v>
+      </c>
+      <c r="M87" s="34"/>
+      <c r="N87" s="34"/>
+      <c r="O87" s="56"/>
       <c r="P87" s="44" t="s">
         <v>22</v>
       </c>
@@ -7878,33 +7914,33 @@
         <v>245</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E88" s="27"/>
       <c r="F88" s="30"/>
       <c r="G88" s="39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H88" s="31">
-        <f>3.27</f>
-        <v>3.27</v>
+        <f>2.38</f>
+        <v>2.38</v>
       </c>
       <c r="I88" s="39">
         <v>1</v>
       </c>
       <c r="J88" s="150">
         <f t="shared" si="3"/>
-        <v>3.27</v>
-      </c>
-      <c r="K88" s="32" t="s">
-        <v>249</v>
+        <v>2.38</v>
+      </c>
+      <c r="K88" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="L88" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="M88" s="34"/>
-      <c r="N88" s="34"/>
-      <c r="O88" s="56"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="58"/>
       <c r="P88" s="44" t="s">
         <v>22</v>
       </c>
@@ -7920,7 +7956,7 @@
         <v>245</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E89" s="27"/>
       <c r="F89" s="30"/>
@@ -7928,24 +7964,24 @@
         <v>4</v>
       </c>
       <c r="H89" s="31">
-        <f>2.57</f>
-        <v>2.57</v>
+        <f>3.27</f>
+        <v>3.27</v>
       </c>
       <c r="I89" s="39">
         <v>1</v>
       </c>
       <c r="J89" s="150">
         <f t="shared" si="3"/>
-        <v>2.57</v>
-      </c>
-      <c r="K89" s="36" t="s">
-        <v>304</v>
+        <v>3.27</v>
+      </c>
+      <c r="K89" s="32" t="s">
+        <v>249</v>
       </c>
       <c r="L89" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="M89" s="40"/>
-      <c r="N89" s="40"/>
+      <c r="M89" s="34"/>
+      <c r="N89" s="34"/>
       <c r="O89" s="56"/>
       <c r="P89" s="44" t="s">
         <v>22</v>
@@ -7959,37 +7995,35 @@
         <v>71</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="D90" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E90" s="27"/>
       <c r="F90" s="30"/>
       <c r="G90" s="39">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H90" s="31">
-        <f>2.75</f>
-        <v>2.75</v>
+        <f>2.57</f>
+        <v>2.57</v>
       </c>
       <c r="I90" s="39">
         <v>1</v>
       </c>
       <c r="J90" s="150">
         <f t="shared" si="3"/>
-        <v>2.75</v>
-      </c>
-      <c r="K90" s="32" t="s">
-        <v>252</v>
+        <v>2.57</v>
+      </c>
+      <c r="K90" s="36" t="s">
+        <v>304</v>
       </c>
       <c r="L90" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="M90" s="34">
-        <v>912</v>
-      </c>
-      <c r="N90" s="34"/>
+      <c r="M90" s="40"/>
+      <c r="N90" s="40"/>
       <c r="O90" s="56"/>
       <c r="P90" s="44" t="s">
         <v>22</v>
@@ -8006,34 +8040,34 @@
         <v>76</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="E91" s="27"/>
       <c r="F91" s="30"/>
       <c r="G91" s="39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H91" s="31">
-        <f>1.75</f>
-        <v>1.75</v>
+        <f>2.75</f>
+        <v>2.75</v>
       </c>
       <c r="I91" s="39">
         <v>1</v>
       </c>
       <c r="J91" s="150">
         <f t="shared" si="3"/>
-        <v>1.75</v>
-      </c>
-      <c r="K91" s="36" t="s">
-        <v>253</v>
+        <v>2.75</v>
+      </c>
+      <c r="K91" s="32" t="s">
+        <v>252</v>
       </c>
       <c r="L91" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="M91" s="40"/>
-      <c r="N91" s="40">
-        <v>7380</v>
-      </c>
+      <c r="M91" s="34">
+        <v>912</v>
+      </c>
+      <c r="N91" s="34"/>
       <c r="O91" s="56"/>
       <c r="P91" s="44" t="s">
         <v>22</v>
@@ -8044,37 +8078,40 @@
         <v>206</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="E92" s="27"/>
       <c r="F92" s="30"/>
       <c r="G92" s="39">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H92" s="31">
-        <v>12</v>
+        <f>1.75</f>
+        <v>1.75</v>
       </c>
       <c r="I92" s="39">
         <v>1</v>
       </c>
       <c r="J92" s="150">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>1.75</v>
       </c>
       <c r="K92" s="36" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L92" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="M92" s="34"/>
-      <c r="N92" s="34"/>
+        <v>54</v>
+      </c>
+      <c r="M92" s="40"/>
+      <c r="N92" s="40">
+        <v>7380</v>
+      </c>
       <c r="O92" s="56"/>
       <c r="P92" s="44" t="s">
         <v>22</v>
@@ -8088,10 +8125,10 @@
         <v>117</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="30"/>
@@ -8109,15 +8146,17 @@
         <v>12</v>
       </c>
       <c r="K93" s="36" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L93" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="M93" s="40"/>
-      <c r="N93" s="40"/>
+        <v>256</v>
+      </c>
+      <c r="M93" s="34"/>
+      <c r="N93" s="34"/>
       <c r="O93" s="56"/>
-      <c r="P93" s="35"/>
+      <c r="P93" s="44" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="26" t="s">
@@ -8127,10 +8166,10 @@
         <v>117</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E94" s="27"/>
       <c r="F94" s="30"/>
@@ -8138,30 +8177,27 @@
         <v>1</v>
       </c>
       <c r="H94" s="31">
-        <f>(3+0.96)</f>
-        <v>3.96</v>
+        <v>12</v>
       </c>
       <c r="I94" s="39">
         <v>1</v>
       </c>
       <c r="J94" s="150">
-        <f t="shared" ref="J94:J96" si="4">I94*H94</f>
-        <v>3.96</v>
-      </c>
-      <c r="K94" s="32" t="s">
-        <v>261</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="K94" s="36" t="s">
+        <v>258</v>
       </c>
       <c r="L94" s="33" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M94" s="40"/>
       <c r="N94" s="40"/>
       <c r="O94" s="56"/>
-      <c r="P94" s="44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" s="4" customFormat="1">
+      <c r="P94" s="35"/>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="26" t="s">
         <v>206</v>
       </c>
@@ -8169,38 +8205,41 @@
         <v>117</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="E95" s="27"/>
       <c r="F95" s="30"/>
       <c r="G95" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H95" s="31">
-        <v>4.5</v>
+        <f>(3+0.96)</f>
+        <v>3.96</v>
       </c>
       <c r="I95" s="39">
         <v>1</v>
       </c>
       <c r="J95" s="150">
-        <f t="shared" si="4"/>
-        <v>4.5</v>
-      </c>
-      <c r="K95" s="36" t="s">
-        <v>280</v>
+        <f t="shared" ref="J95:J97" si="4">I95*H95</f>
+        <v>3.96</v>
+      </c>
+      <c r="K95" s="32" t="s">
+        <v>261</v>
       </c>
       <c r="L95" s="33" t="s">
-        <v>66</v>
+        <v>337</v>
       </c>
       <c r="M95" s="40"/>
       <c r="N95" s="40"/>
       <c r="O95" s="56"/>
-      <c r="P95" s="44"/>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="P95" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" s="4" customFormat="1">
       <c r="A96" s="26" t="s">
         <v>206</v>
       </c>
@@ -8208,53 +8247,49 @@
         <v>117</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="E96" s="27"/>
       <c r="F96" s="30"/>
       <c r="G96" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" s="31">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I96" s="39">
         <v>1</v>
       </c>
       <c r="J96" s="150">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K96" s="36" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="L96" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="M96" s="34"/>
-      <c r="N96" s="34"/>
-      <c r="O96" s="112" t="s">
-        <v>332</v>
-      </c>
-      <c r="P96" s="46" t="s">
-        <v>321</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M96" s="40"/>
+      <c r="N96" s="40"/>
+      <c r="O96" s="56"/>
+      <c r="P96" s="44"/>
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="26" t="s">
         <v>206</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E97" s="27"/>
       <c r="F97" s="30"/>
@@ -8262,41 +8297,42 @@
         <v>1</v>
       </c>
       <c r="H97" s="31">
-        <f>0.87</f>
-        <v>0.87</v>
+        <v>4</v>
       </c>
       <c r="I97" s="39">
         <v>1</v>
       </c>
       <c r="J97" s="150">
-        <f>H97*I97</f>
-        <v>0.87</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="K97" s="36" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L97" s="33" t="s">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="M97" s="34"/>
       <c r="N97" s="34"/>
-      <c r="O97" s="60"/>
-      <c r="P97" s="47" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" s="4" customFormat="1" ht="15.75" thickBot="1">
+      <c r="O97" s="112" t="s">
+        <v>332</v>
+      </c>
+      <c r="P97" s="46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
       <c r="A98" s="26" t="s">
         <v>206</v>
       </c>
       <c r="B98" s="38" t="s">
-        <v>290</v>
+        <v>71</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="D98" s="38" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E98" s="27"/>
       <c r="F98" s="30"/>
@@ -8304,89 +8340,131 @@
         <v>1</v>
       </c>
       <c r="H98" s="31">
-        <v>21.5</v>
+        <f>0.87</f>
+        <v>0.87</v>
       </c>
       <c r="I98" s="39">
         <v>1</v>
       </c>
       <c r="J98" s="150">
         <f>H98*I98</f>
-        <v>21.5</v>
+        <v>0.87</v>
       </c>
       <c r="K98" s="36" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="L98" s="33" t="s">
-        <v>339</v>
+        <v>54</v>
       </c>
       <c r="M98" s="34"/>
       <c r="N98" s="34"/>
       <c r="O98" s="60"/>
-      <c r="P98" s="47"/>
-    </row>
-    <row r="99" spans="1:26" s="4" customFormat="1" ht="15.75">
-      <c r="A99" s="116"/>
-      <c r="B99" s="131" t="s">
+      <c r="P98" s="47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" s="4" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A99" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="D99" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="E99" s="27"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="39">
+        <v>1</v>
+      </c>
+      <c r="H99" s="31">
+        <v>21.5</v>
+      </c>
+      <c r="I99" s="39">
+        <v>1</v>
+      </c>
+      <c r="J99" s="150">
+        <f>H99*I99</f>
+        <v>21.5</v>
+      </c>
+      <c r="K99" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="L99" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="M99" s="34"/>
+      <c r="N99" s="34"/>
+      <c r="O99" s="60"/>
+      <c r="P99" s="47"/>
+    </row>
+    <row r="100" spans="1:26" s="4" customFormat="1" ht="15.75">
+      <c r="A100" s="116"/>
+      <c r="B100" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C99" s="156" t="s">
+      <c r="C100" s="156" t="s">
         <v>325</v>
       </c>
-      <c r="D99" s="131" t="s">
+      <c r="D100" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="E99" s="118"/>
-      <c r="F99" s="118"/>
-      <c r="G99" s="117"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="117"/>
-      <c r="J99" s="157">
-        <f>SUM(J20:J98)+H18</f>
-        <v>1681.7499999999998</v>
-      </c>
-      <c r="K99" s="120"/>
-      <c r="L99" s="121"/>
-      <c r="M99" s="122"/>
-      <c r="N99" s="122"/>
-      <c r="O99" s="162"/>
-      <c r="P99" s="123"/>
-    </row>
-    <row r="100" spans="1:26" s="14" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A100" s="124"/>
-      <c r="B100" s="125" t="s">
+      <c r="E100" s="118"/>
+      <c r="F100" s="118"/>
+      <c r="G100" s="117"/>
+      <c r="H100" s="70"/>
+      <c r="I100" s="117"/>
+      <c r="J100" s="157">
+        <f>SUM(J20:J99)+H18</f>
+        <v>1695.2499999999998</v>
+      </c>
+      <c r="K100" s="120"/>
+      <c r="L100" s="121"/>
+      <c r="M100" s="122"/>
+      <c r="N100" s="122"/>
+      <c r="O100" s="162"/>
+      <c r="P100" s="123"/>
+    </row>
+    <row r="101" spans="1:26" s="14" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A101" s="124"/>
+      <c r="B101" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="124" t="s">
+      <c r="C101" s="124" t="s">
         <v>326</v>
       </c>
-      <c r="D100" s="126" t="s">
+      <c r="D101" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="E100" s="126"/>
-      <c r="F100" s="126"/>
-      <c r="G100" s="126"/>
-      <c r="H100" s="126"/>
-      <c r="I100" s="127"/>
-      <c r="J100" s="138">
-        <f>SUM(J20:J98)+J19</f>
-        <v>1939.7499999999998</v>
-      </c>
-      <c r="K100" s="126"/>
-      <c r="L100" s="115"/>
-      <c r="M100" s="129"/>
-      <c r="N100" s="129"/>
-      <c r="O100" s="158"/>
-      <c r="P100" s="130"/>
-      <c r="Q100" s="13"/>
-      <c r="R100" s="13"/>
-      <c r="S100" s="13"/>
-      <c r="T100" s="13"/>
-      <c r="U100" s="13"/>
-      <c r="V100" s="13"/>
-      <c r="W100" s="13"/>
-      <c r="X100" s="13"/>
-      <c r="Y100" s="13"/>
-      <c r="Z100" s="13"/>
+      <c r="E101" s="126"/>
+      <c r="F101" s="126"/>
+      <c r="G101" s="126"/>
+      <c r="H101" s="126"/>
+      <c r="I101" s="127"/>
+      <c r="J101" s="138">
+        <f>SUM(J20:J99)+J19</f>
+        <v>1953.2499999999998</v>
+      </c>
+      <c r="K101" s="126"/>
+      <c r="L101" s="115"/>
+      <c r="M101" s="129"/>
+      <c r="N101" s="129"/>
+      <c r="O101" s="158"/>
+      <c r="P101" s="130"/>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
+      <c r="U101" s="13"/>
+      <c r="V101" s="13"/>
+      <c r="W101" s="13"/>
+      <c r="X101" s="13"/>
+      <c r="Y101" s="13"/>
+      <c r="Z101" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8430,43 +8508,43 @@
     <hyperlink ref="K57" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="K59" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="K60" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K61" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="K62" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K63" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K64" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K65" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="K66" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="K67" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="K71" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="K72" r:id="rId46" display="Color: Buffer 14inch 35cm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="K73" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="K74" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K75" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="K76" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="K77" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="K78" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="K79" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K80" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="K81" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="K82" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="K83" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="K84" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K85" r:id="rId59" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="K86" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="K87" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="K88" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="K89" r:id="rId63" display="1x Size: M3 - 30mm" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="K90" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="K91" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="K92" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="K93" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="K94" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="K96" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="K97" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="K62" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K63" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K64" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K65" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K66" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="K67" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K68" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K72" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K73" r:id="rId46" display="Color: Buffer 14inch 35cm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K74" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K75" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K76" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="K77" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K78" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K79" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K80" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K81" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K82" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K83" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K84" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="K85" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K86" r:id="rId59" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="K87" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K88" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="K89" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="K90" r:id="rId63" display="1x Size: M3 - 30mm" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K91" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="K92" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="K93" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="K94" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="K95" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K97" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="K98" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
     <hyperlink ref="K49" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="K95" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="K96" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
     <hyperlink ref="K58" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="K98" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="K99" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="K50" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="K51" r:id="rId76" display="M3 ss washer" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="K56" r:id="rId77" display="2x 164-0575" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
@@ -8484,17 +8562,19 @@
     <hyperlink ref="K18" r:id="rId89" display="Ask for Precision Cut Frame Bundle" xr:uid="{075D7F8C-B182-4470-9B95-9854ED11B06A}"/>
     <hyperlink ref="O52" r:id="rId90" display="1x TMC2209 x8" xr:uid="{4DE7C021-EFF7-4219-B85B-490FCDB3F4B7}"/>
     <hyperlink ref="O58" r:id="rId91" display="1x ADXL345 Accelerometer" xr:uid="{C70186B3-EA3A-4686-90E6-7E2B397151A6}"/>
-    <hyperlink ref="O96" r:id="rId92" display="Klipper ONLY 1x Humidity Sensor" xr:uid="{2FB88C3A-5D05-4B8E-80F3-45376CE60E80}"/>
-    <hyperlink ref="K68" r:id="rId93" xr:uid="{4AC86807-7591-4FC0-B843-F75D7B196BAD}"/>
-    <hyperlink ref="K69" r:id="rId94" xr:uid="{E51B5839-CA14-434E-9C5C-2396BEBB99E8}"/>
-    <hyperlink ref="K70" r:id="rId95" display="TBD" xr:uid="{349B70BC-D928-4468-A28F-E77CA9C8C8C4}"/>
+    <hyperlink ref="O97" r:id="rId92" display="Klipper ONLY 1x Humidity Sensor" xr:uid="{2FB88C3A-5D05-4B8E-80F3-45376CE60E80}"/>
+    <hyperlink ref="K69" r:id="rId93" xr:uid="{4AC86807-7591-4FC0-B843-F75D7B196BAD}"/>
+    <hyperlink ref="K70" r:id="rId94" xr:uid="{E51B5839-CA14-434E-9C5C-2396BEBB99E8}"/>
+    <hyperlink ref="K71" r:id="rId95" display="TBD" xr:uid="{349B70BC-D928-4468-A28F-E77CA9C8C8C4}"/>
+    <hyperlink ref="K61" r:id="rId96" xr:uid="{CA2BA1F1-CEC6-4E27-A1F7-45CF1A6C8280}"/>
+    <hyperlink ref="O22" r:id="rId97" xr:uid="{AFBC8F42-EABE-4AFD-850E-A8AA7ED1D6FB}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="52" fitToWidth="0" orientation="portrait" r:id="rId96"/>
-  <drawing r:id="rId97"/>
-  <legacyDrawing r:id="rId98"/>
+  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="portrait" r:id="rId98"/>
+  <drawing r:id="rId99"/>
+  <legacyDrawing r:id="rId100"/>
   <tableParts count="1">
-    <tablePart r:id="rId99"/>
+    <tablePart r:id="rId101"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11285,7 +11365,7 @@
   <dimension ref="A1:Z112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/Document Library/Bill Of Materials/Valkyrie BOM RC-08.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM RC-08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="374" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD263D26-712C-4E8E-9F89-F50F886CD779}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{872306E5-997C-4E46-BA8E-26A758D5D70D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -399,6 +399,30 @@
           </rPr>
           <t xml:space="preserve">
 Option Board</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K59" authorId="0" shapeId="0" xr:uid="{25AA0129-6A08-448A-ADCA-B3DC564D3D53}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Choose sujited fuse temp for your system</t>
         </r>
       </text>
     </comment>
@@ -1993,7 +2017,7 @@
     <t>1x Size: (130C)330x330mm</t>
   </si>
   <si>
-    <t>1x 10Pcs Temperature: 160 degree</t>
+    <t>1x Temperature: 150/180 degree</t>
   </si>
 </sst>
 </file>
@@ -2535,7 +2559,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
@@ -3383,33 +3407,33 @@
   </sheetPr>
   <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="17" max="26" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="11" max="11" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.54296875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" hidden="1" customWidth="1"/>
+    <col min="17" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27">
+    <row r="1" spans="1:26" ht="26">
       <c r="A1" s="123" t="s">
         <v>299</v>
       </c>
@@ -3453,13 +3477,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1">
+    <row r="5" spans="1:26" ht="15" thickBot="1">
       <c r="C5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="104" customFormat="1" ht="15.75">
+    <row r="6" spans="1:26" s="104" customFormat="1" ht="15.5">
       <c r="A6" s="100"/>
       <c r="B6" s="101" t="s">
         <v>4</v>
@@ -3486,7 +3510,7 @@
       <c r="O6" s="103"/>
       <c r="P6" s="103"/>
     </row>
-    <row r="7" spans="1:26" s="7" customFormat="1" ht="16.5" thickBot="1">
+    <row r="7" spans="1:26" s="7" customFormat="1" ht="16" thickBot="1">
       <c r="A7" s="83"/>
       <c r="B7" s="84" t="s">
         <v>4</v>
@@ -3936,7 +3960,7 @@
       </c>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1">
+    <row r="17" spans="1:16" ht="15" thickBot="1">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
@@ -4014,7 +4038,7 @@
       <c r="O18" s="59"/>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1">
+    <row r="19" spans="1:16" ht="15" thickBot="1">
       <c r="A19" s="42" t="s">
         <v>22</v>
       </c>
@@ -7293,7 +7317,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="99" spans="1:26" s="4" customFormat="1" ht="15.75" thickBot="1">
+    <row r="99" spans="1:26" s="4" customFormat="1" ht="15" thickBot="1">
       <c r="A99" s="8" t="s">
         <v>181</v>
       </c>
@@ -7332,7 +7356,7 @@
       <c r="O99" s="33"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="1:26" s="4" customFormat="1" ht="15.75">
+    <row r="100" spans="1:26" s="4" customFormat="1" ht="15.5">
       <c r="A100" s="75"/>
       <c r="B100" s="90" t="s">
         <v>4</v>
@@ -7359,7 +7383,7 @@
       <c r="O100" s="121"/>
       <c r="P100" s="82"/>
     </row>
-    <row r="101" spans="1:26" s="7" customFormat="1" ht="16.5" thickBot="1">
+    <row r="101" spans="1:26" s="7" customFormat="1" ht="16" thickBot="1">
       <c r="A101" s="83"/>
       <c r="B101" s="84" t="s">
         <v>4</v>
@@ -7436,7 +7460,7 @@
     <hyperlink ref="K55" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="O56" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="K57" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K59" r:id="rId36" display="250V 15A 135 deg Fuse" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K59" r:id="rId36" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="K60" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="K62" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="K63" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
@@ -7500,7 +7524,7 @@
     <hyperlink ref="O22" r:id="rId97" xr:uid="{AFBC8F42-EABE-4AFD-850E-A8AA7ED1D6FB}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="portrait" r:id="rId98"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId98"/>
   <drawing r:id="rId99"/>
   <legacyDrawing r:id="rId100"/>
   <tableParts count="1">
@@ -7521,29 +7545,29 @@
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="4" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="4" customWidth="1"/>
     <col min="5" max="5" width="12" style="4" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="17" max="26" width="8.7109375" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="4"/>
+    <col min="8" max="8" width="10.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="32.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.54296875" style="4" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.453125" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="26" width="8.7265625" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="14.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27">
+    <row r="1" spans="1:26" ht="26">
       <c r="A1" s="123" t="s">
         <v>298</v>
       </c>
@@ -7593,10 +7617,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1">
+    <row r="6" spans="1:26" ht="15" thickBot="1">
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:26" s="104" customFormat="1" ht="15.75">
+    <row r="7" spans="1:26" s="104" customFormat="1" ht="15.5">
       <c r="A7" s="100"/>
       <c r="B7" s="101" t="s">
         <v>4</v>
@@ -7623,7 +7647,7 @@
       <c r="O7" s="102"/>
       <c r="P7" s="103"/>
     </row>
-    <row r="8" spans="1:26" s="7" customFormat="1" ht="16.5" thickBot="1">
+    <row r="8" spans="1:26" s="7" customFormat="1" ht="16" thickBot="1">
       <c r="A8" s="83"/>
       <c r="B8" s="84" t="s">
         <v>4</v>
@@ -8073,7 +8097,7 @@
       </c>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1">
+    <row r="18" spans="1:16" ht="15" thickBot="1">
       <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
@@ -8151,7 +8175,7 @@
       <c r="O19" s="59"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1">
+    <row r="20" spans="1:16" ht="15" thickBot="1">
       <c r="A20" s="42" t="s">
         <v>22</v>
       </c>
@@ -10103,7 +10127,7 @@
       <c r="O67" s="30"/>
       <c r="P67" s="17"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" thickBot="1">
+    <row r="68" spans="1:26" ht="15" thickBot="1">
       <c r="A68" s="8" t="s">
         <v>42</v>
       </c>
@@ -10144,7 +10168,7 @@
       <c r="O68" s="31"/>
       <c r="P68" s="17"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75">
+    <row r="69" spans="1:26" ht="15.5">
       <c r="A69" s="75"/>
       <c r="B69" s="90" t="s">
         <v>4</v>
@@ -10171,7 +10195,7 @@
       <c r="O69" s="78"/>
       <c r="P69" s="82"/>
     </row>
-    <row r="70" spans="1:26" s="7" customFormat="1" ht="16.5" thickBot="1">
+    <row r="70" spans="1:26" s="7" customFormat="1" ht="16" thickBot="1">
       <c r="A70" s="83"/>
       <c r="B70" s="84" t="s">
         <v>4</v>

--- a/Document Library/Bill Of Materials/Valkyrie BOM RC-08.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM RC-08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="388" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{872306E5-997C-4E46-BA8E-26A758D5D70D}"/>
+  <xr:revisionPtr revIDLastSave="395" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B420C59B-36A5-4A09-9736-9F8CA0A43259}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3409,12 +3409,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:P1"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
     <col min="2" max="2" width="13.453125" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.1796875" customWidth="1"/>
@@ -3425,11 +3425,11 @@
     <col min="9" max="9" width="13.1796875" customWidth="1"/>
     <col min="10" max="10" width="14.81640625" customWidth="1"/>
     <col min="11" max="11" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.54296875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" customWidth="1"/>
+    <col min="14" max="14" width="8.54296875" customWidth="1"/>
     <col min="15" max="15" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.54296875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" customWidth="1"/>
     <col min="17" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Document Library/Bill Of Materials/Valkyrie BOM RC-08.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM RC-08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="395" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B420C59B-36A5-4A09-9736-9F8CA0A43259}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2B1077C-E835-499B-A64D-756317140B56}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -2559,7 +2559,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
@@ -3409,31 +3409,31 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" customWidth="1"/>
-    <col min="11" max="11" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" customWidth="1"/>
-    <col min="14" max="14" width="8.54296875" customWidth="1"/>
-    <col min="15" max="15" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.54296875" customWidth="1"/>
-    <col min="17" max="26" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26">
+    <row r="1" spans="1:26" ht="27">
       <c r="A1" s="123" t="s">
         <v>299</v>
       </c>
@@ -3477,13 +3477,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" thickBot="1">
+    <row r="5" spans="1:26" ht="15.75" thickBot="1">
       <c r="C5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="104" customFormat="1" ht="15.5">
+    <row r="6" spans="1:26" s="104" customFormat="1" ht="15.75">
       <c r="A6" s="100"/>
       <c r="B6" s="101" t="s">
         <v>4</v>
@@ -3510,7 +3510,7 @@
       <c r="O6" s="103"/>
       <c r="P6" s="103"/>
     </row>
-    <row r="7" spans="1:26" s="7" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="1:26" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A7" s="83"/>
       <c r="B7" s="84" t="s">
         <v>4</v>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" ht="15" thickBot="1">
+    <row r="17" spans="1:16" ht="15.75">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
@@ -4038,7 +4038,7 @@
       <c r="O18" s="59"/>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16" ht="15" thickBot="1">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1">
       <c r="A19" s="42" t="s">
         <v>22</v>
       </c>
@@ -5867,7 +5867,7 @@
       <c r="O63" s="29"/>
       <c r="P63" s="17"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" thickBot="1">
       <c r="A64" s="8" t="s">
         <v>49</v>
       </c>
@@ -5906,7 +5906,7 @@
       <c r="O64" s="29"/>
       <c r="P64" s="17"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" thickBot="1">
       <c r="A65" s="8" t="s">
         <v>49</v>
       </c>
@@ -5945,7 +5945,7 @@
       <c r="O65" s="29"/>
       <c r="P65" s="17"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" thickBot="1">
       <c r="A66" s="8" t="s">
         <v>49</v>
       </c>
@@ -5984,7 +5984,7 @@
       <c r="O66" s="29"/>
       <c r="P66" s="17"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" thickBot="1">
       <c r="A67" s="8" t="s">
         <v>49</v>
       </c>
@@ -6027,7 +6027,7 @@
       <c r="O67" s="29"/>
       <c r="P67" s="17"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" thickBot="1">
       <c r="A68" s="8" t="s">
         <v>49</v>
       </c>
@@ -6066,7 +6066,7 @@
       <c r="O68" s="30"/>
       <c r="P68" s="17"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" thickBot="1">
       <c r="A69" s="8" t="s">
         <v>174</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="O69" s="30"/>
       <c r="P69" s="17"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" thickBot="1">
       <c r="A70" s="8" t="s">
         <v>174</v>
       </c>
@@ -6144,7 +6144,7 @@
       <c r="O70" s="30"/>
       <c r="P70" s="17"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" thickBot="1">
       <c r="A71" s="8" t="s">
         <v>174</v>
       </c>
@@ -6185,7 +6185,7 @@
       <c r="O71" s="30"/>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" thickBot="1">
       <c r="A72" s="8" t="s">
         <v>42</v>
       </c>
@@ -6226,7 +6226,7 @@
       <c r="O72" s="31"/>
       <c r="P72" s="17"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" thickBot="1">
       <c r="A73" s="8" t="s">
         <v>181</v>
       </c>
@@ -6267,7 +6267,7 @@
       <c r="O73" s="30"/>
       <c r="P73" s="26"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" thickBot="1">
       <c r="A74" s="8" t="s">
         <v>181</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" thickBot="1">
       <c r="A75" s="8" t="s">
         <v>181</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" thickBot="1">
       <c r="A76" s="8" t="s">
         <v>181</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" thickBot="1">
       <c r="A77" s="8" t="s">
         <v>181</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" thickBot="1">
       <c r="A78" s="8" t="s">
         <v>181</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" thickBot="1">
       <c r="A79" s="8" t="s">
         <v>181</v>
       </c>
@@ -6527,7 +6527,7 @@
       <c r="O79" s="32"/>
       <c r="P79" s="17"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" thickBot="1">
       <c r="A80" s="8" t="s">
         <v>181</v>
       </c>
@@ -6567,7 +6567,7 @@
       <c r="O80" s="30"/>
       <c r="P80" s="17"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" thickBot="1">
       <c r="A81" s="8" t="s">
         <v>181</v>
       </c>
@@ -6606,7 +6606,7 @@
       <c r="O81" s="30"/>
       <c r="P81" s="17"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" thickBot="1">
       <c r="A82" s="8" t="s">
         <v>181</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" thickBot="1">
       <c r="A83" s="8" t="s">
         <v>181</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" thickBot="1">
       <c r="A84" s="8" t="s">
         <v>181</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" thickBot="1">
       <c r="A85" s="8" t="s">
         <v>181</v>
       </c>
@@ -6775,7 +6775,7 @@
       <c r="O85" s="30"/>
       <c r="P85" s="17"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" thickBot="1">
       <c r="A86" s="8" t="s">
         <v>181</v>
       </c>
@@ -6815,7 +6815,7 @@
       <c r="O86" s="30"/>
       <c r="P86" s="17"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" thickBot="1">
       <c r="A87" s="8" t="s">
         <v>181</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" thickBot="1">
       <c r="A88" s="8" t="s">
         <v>181</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" thickBot="1">
       <c r="A89" s="8" t="s">
         <v>181</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" thickBot="1">
       <c r="A90" s="8" t="s">
         <v>181</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" thickBot="1">
       <c r="A91" s="8" t="s">
         <v>181</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" thickBot="1">
       <c r="A92" s="8" t="s">
         <v>181</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" thickBot="1">
       <c r="A93" s="8" t="s">
         <v>181</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" thickBot="1">
       <c r="A94" s="8" t="s">
         <v>181</v>
       </c>
@@ -7151,7 +7151,7 @@
       <c r="O94" s="30"/>
       <c r="P94" s="17"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" thickBot="1">
       <c r="A95" s="8" t="s">
         <v>181</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="4" customFormat="1">
+    <row r="96" spans="1:16" s="4" customFormat="1" thickBot="1">
       <c r="A96" s="8" t="s">
         <v>181</v>
       </c>
@@ -7232,7 +7232,7 @@
       <c r="O96" s="30"/>
       <c r="P96" s="25"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" thickBot="1">
       <c r="A97" s="8" t="s">
         <v>181</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" thickBot="1">
       <c r="A98" s="8" t="s">
         <v>181</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="99" spans="1:26" s="4" customFormat="1" ht="15" thickBot="1">
+    <row r="99" spans="1:26" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A99" s="8" t="s">
         <v>181</v>
       </c>
@@ -7356,7 +7356,7 @@
       <c r="O99" s="33"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="1:26" s="4" customFormat="1" ht="15.5">
+    <row r="100" spans="1:26" s="4" customFormat="1" ht="15.75">
       <c r="A100" s="75"/>
       <c r="B100" s="90" t="s">
         <v>4</v>
@@ -7383,7 +7383,7 @@
       <c r="O100" s="121"/>
       <c r="P100" s="82"/>
     </row>
-    <row r="101" spans="1:26" s="7" customFormat="1" ht="16" thickBot="1">
+    <row r="101" spans="1:26" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A101" s="83"/>
       <c r="B101" s="84" t="s">
         <v>4</v>
@@ -7545,29 +7545,29 @@
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" style="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="4" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12" style="4" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="32.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="4" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.54296875" style="4" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.453125" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.54296875" style="4" hidden="1" customWidth="1"/>
-    <col min="17" max="26" width="8.7265625" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="14.453125" style="4"/>
+    <col min="8" max="8" width="10.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="17" max="26" width="8.7109375" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26">
+    <row r="1" spans="1:26" ht="27">
       <c r="A1" s="123" t="s">
         <v>298</v>
       </c>
@@ -7617,10 +7617,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" thickBot="1">
+    <row r="6" spans="1:26" ht="15.75" thickBot="1">
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:26" s="104" customFormat="1" ht="15.5">
+    <row r="7" spans="1:26" s="104" customFormat="1" ht="15.75">
       <c r="A7" s="100"/>
       <c r="B7" s="101" t="s">
         <v>4</v>
@@ -7647,7 +7647,7 @@
       <c r="O7" s="102"/>
       <c r="P7" s="103"/>
     </row>
-    <row r="8" spans="1:26" s="7" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="1:26" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="83"/>
       <c r="B8" s="84" t="s">
         <v>4</v>
@@ -8097,7 +8097,7 @@
       </c>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1">
+    <row r="18" spans="1:16" ht="15.75" thickBot="1">
       <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
@@ -8175,7 +8175,7 @@
       <c r="O19" s="59"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1">
+    <row r="20" spans="1:16" ht="15.75" thickBot="1">
       <c r="A20" s="42" t="s">
         <v>22</v>
       </c>
@@ -10127,7 +10127,7 @@
       <c r="O67" s="30"/>
       <c r="P67" s="17"/>
     </row>
-    <row r="68" spans="1:26" ht="15" thickBot="1">
+    <row r="68" spans="1:26" ht="15.75" thickBot="1">
       <c r="A68" s="8" t="s">
         <v>42</v>
       </c>
@@ -10168,7 +10168,7 @@
       <c r="O68" s="31"/>
       <c r="P68" s="17"/>
     </row>
-    <row r="69" spans="1:26" ht="15.5">
+    <row r="69" spans="1:26" ht="15.75">
       <c r="A69" s="75"/>
       <c r="B69" s="90" t="s">
         <v>4</v>
@@ -10195,7 +10195,7 @@
       <c r="O69" s="78"/>
       <c r="P69" s="82"/>
     </row>
-    <row r="70" spans="1:26" s="7" customFormat="1" ht="16" thickBot="1">
+    <row r="70" spans="1:26" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A70" s="83"/>
       <c r="B70" s="84" t="s">
         <v>4</v>

--- a/Document Library/Bill Of Materials/Valkyrie BOM RC-08.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM RC-08.xlsx
@@ -3408,8 +3408,8 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75">
+    <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
@@ -5867,7 +5867,7 @@
       <c r="O63" s="29"/>
       <c r="P63" s="17"/>
     </row>
-    <row r="64" spans="1:16" thickBot="1">
+    <row r="64" spans="1:16" ht="15.75" thickBot="1">
       <c r="A64" s="8" t="s">
         <v>49</v>
       </c>
@@ -5906,7 +5906,7 @@
       <c r="O64" s="29"/>
       <c r="P64" s="17"/>
     </row>
-    <row r="65" spans="1:16" thickBot="1">
+    <row r="65" spans="1:16" ht="15.75" thickBot="1">
       <c r="A65" s="8" t="s">
         <v>49</v>
       </c>
@@ -5945,7 +5945,7 @@
       <c r="O65" s="29"/>
       <c r="P65" s="17"/>
     </row>
-    <row r="66" spans="1:16" thickBot="1">
+    <row r="66" spans="1:16" ht="15.75" thickBot="1">
       <c r="A66" s="8" t="s">
         <v>49</v>
       </c>
@@ -5984,7 +5984,7 @@
       <c r="O66" s="29"/>
       <c r="P66" s="17"/>
     </row>
-    <row r="67" spans="1:16" thickBot="1">
+    <row r="67" spans="1:16" ht="15.75" thickBot="1">
       <c r="A67" s="8" t="s">
         <v>49</v>
       </c>
@@ -6027,7 +6027,7 @@
       <c r="O67" s="29"/>
       <c r="P67" s="17"/>
     </row>
-    <row r="68" spans="1:16" thickBot="1">
+    <row r="68" spans="1:16" ht="15.75" thickBot="1">
       <c r="A68" s="8" t="s">
         <v>49</v>
       </c>
@@ -6066,7 +6066,7 @@
       <c r="O68" s="30"/>
       <c r="P68" s="17"/>
     </row>
-    <row r="69" spans="1:16" thickBot="1">
+    <row r="69" spans="1:16" ht="15.75" thickBot="1">
       <c r="A69" s="8" t="s">
         <v>174</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="O69" s="30"/>
       <c r="P69" s="17"/>
     </row>
-    <row r="70" spans="1:16" thickBot="1">
+    <row r="70" spans="1:16" ht="15.75" thickBot="1">
       <c r="A70" s="8" t="s">
         <v>174</v>
       </c>
@@ -6144,7 +6144,7 @@
       <c r="O70" s="30"/>
       <c r="P70" s="17"/>
     </row>
-    <row r="71" spans="1:16" thickBot="1">
+    <row r="71" spans="1:16" ht="15.75" thickBot="1">
       <c r="A71" s="8" t="s">
         <v>174</v>
       </c>
@@ -6185,7 +6185,7 @@
       <c r="O71" s="30"/>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:16" thickBot="1">
+    <row r="72" spans="1:16" ht="15.75" thickBot="1">
       <c r="A72" s="8" t="s">
         <v>42</v>
       </c>
@@ -6226,7 +6226,7 @@
       <c r="O72" s="31"/>
       <c r="P72" s="17"/>
     </row>
-    <row r="73" spans="1:16" thickBot="1">
+    <row r="73" spans="1:16" ht="15.75" thickBot="1">
       <c r="A73" s="8" t="s">
         <v>181</v>
       </c>
@@ -6267,7 +6267,7 @@
       <c r="O73" s="30"/>
       <c r="P73" s="26"/>
     </row>
-    <row r="74" spans="1:16" thickBot="1">
+    <row r="74" spans="1:16" ht="15.75" thickBot="1">
       <c r="A74" s="8" t="s">
         <v>181</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:16" thickBot="1">
+    <row r="75" spans="1:16" ht="15.75" thickBot="1">
       <c r="A75" s="8" t="s">
         <v>181</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:16" thickBot="1">
+    <row r="76" spans="1:16" ht="15.75" thickBot="1">
       <c r="A76" s="8" t="s">
         <v>181</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:16" thickBot="1">
+    <row r="77" spans="1:16" ht="15.75" thickBot="1">
       <c r="A77" s="8" t="s">
         <v>181</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:16" thickBot="1">
+    <row r="78" spans="1:16" ht="15.75" thickBot="1">
       <c r="A78" s="8" t="s">
         <v>181</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:16" thickBot="1">
+    <row r="79" spans="1:16" ht="15.75" thickBot="1">
       <c r="A79" s="8" t="s">
         <v>181</v>
       </c>
@@ -6527,7 +6527,7 @@
       <c r="O79" s="32"/>
       <c r="P79" s="17"/>
     </row>
-    <row r="80" spans="1:16" thickBot="1">
+    <row r="80" spans="1:16" ht="15.75" thickBot="1">
       <c r="A80" s="8" t="s">
         <v>181</v>
       </c>
@@ -6567,7 +6567,7 @@
       <c r="O80" s="30"/>
       <c r="P80" s="17"/>
     </row>
-    <row r="81" spans="1:16" thickBot="1">
+    <row r="81" spans="1:16" ht="15.75" thickBot="1">
       <c r="A81" s="8" t="s">
         <v>181</v>
       </c>
@@ -6606,7 +6606,7 @@
       <c r="O81" s="30"/>
       <c r="P81" s="17"/>
     </row>
-    <row r="82" spans="1:16" thickBot="1">
+    <row r="82" spans="1:16" ht="15.75" thickBot="1">
       <c r="A82" s="8" t="s">
         <v>181</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:16" thickBot="1">
+    <row r="83" spans="1:16" ht="15.75" thickBot="1">
       <c r="A83" s="8" t="s">
         <v>181</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:16" thickBot="1">
+    <row r="84" spans="1:16" ht="15.75" thickBot="1">
       <c r="A84" s="8" t="s">
         <v>181</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:16" thickBot="1">
+    <row r="85" spans="1:16" ht="15.75" thickBot="1">
       <c r="A85" s="8" t="s">
         <v>181</v>
       </c>
@@ -6775,7 +6775,7 @@
       <c r="O85" s="30"/>
       <c r="P85" s="17"/>
     </row>
-    <row r="86" spans="1:16" thickBot="1">
+    <row r="86" spans="1:16" ht="15.75" thickBot="1">
       <c r="A86" s="8" t="s">
         <v>181</v>
       </c>
@@ -6815,7 +6815,7 @@
       <c r="O86" s="30"/>
       <c r="P86" s="17"/>
     </row>
-    <row r="87" spans="1:16" thickBot="1">
+    <row r="87" spans="1:16" ht="15.75" thickBot="1">
       <c r="A87" s="8" t="s">
         <v>181</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:16" thickBot="1">
+    <row r="88" spans="1:16" ht="15.75" thickBot="1">
       <c r="A88" s="8" t="s">
         <v>181</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:16" thickBot="1">
+    <row r="89" spans="1:16" ht="15.75" thickBot="1">
       <c r="A89" s="8" t="s">
         <v>181</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:16" thickBot="1">
+    <row r="90" spans="1:16" ht="15.75" thickBot="1">
       <c r="A90" s="8" t="s">
         <v>181</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:16" thickBot="1">
+    <row r="91" spans="1:16" ht="15.75" thickBot="1">
       <c r="A91" s="8" t="s">
         <v>181</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:16" thickBot="1">
+    <row r="92" spans="1:16" ht="15.75" thickBot="1">
       <c r="A92" s="8" t="s">
         <v>181</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:16" thickBot="1">
+    <row r="93" spans="1:16" ht="15.75" thickBot="1">
       <c r="A93" s="8" t="s">
         <v>181</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:16" thickBot="1">
+    <row r="94" spans="1:16" ht="15.75" thickBot="1">
       <c r="A94" s="8" t="s">
         <v>181</v>
       </c>
@@ -7151,7 +7151,7 @@
       <c r="O94" s="30"/>
       <c r="P94" s="17"/>
     </row>
-    <row r="95" spans="1:16" thickBot="1">
+    <row r="95" spans="1:16" ht="15.75" thickBot="1">
       <c r="A95" s="8" t="s">
         <v>181</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:16" s="4" customFormat="1" thickBot="1">
+    <row r="96" spans="1:16" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A96" s="8" t="s">
         <v>181</v>
       </c>
@@ -7232,7 +7232,7 @@
       <c r="O96" s="30"/>
       <c r="P96" s="25"/>
     </row>
-    <row r="97" spans="1:26" thickBot="1">
+    <row r="97" spans="1:26" ht="15.75" thickBot="1">
       <c r="A97" s="8" t="s">
         <v>181</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="98" spans="1:26" thickBot="1">
+    <row r="98" spans="1:26" ht="15.75" thickBot="1">
       <c r="A98" s="8" t="s">
         <v>181</v>
       </c>

--- a/Document Library/Bill Of Materials/Valkyrie BOM RC-08.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM RC-08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="397" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2B1077C-E835-499B-A64D-756317140B56}"/>
+  <xr:revisionPtr revIDLastSave="401" documentId="11_90E8A2594C63906364F20E90CDD1628CCD4781EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DC9D0CD-C745-4467-A7B0-4614F50FCF66}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3408,8 +3408,8 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="8" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -5867,7 +5867,7 @@
       <c r="O63" s="29"/>
       <c r="P63" s="17"/>
     </row>
-    <row r="64" spans="1:16" ht="15.75" thickBot="1">
+    <row r="64" spans="1:16" ht="15.75">
       <c r="A64" s="8" t="s">
         <v>49</v>
       </c>
@@ -5906,7 +5906,7 @@
       <c r="O64" s="29"/>
       <c r="P64" s="17"/>
     </row>
-    <row r="65" spans="1:16" ht="15.75" thickBot="1">
+    <row r="65" spans="1:16" ht="15.75">
       <c r="A65" s="8" t="s">
         <v>49</v>
       </c>
@@ -5945,7 +5945,7 @@
       <c r="O65" s="29"/>
       <c r="P65" s="17"/>
     </row>
-    <row r="66" spans="1:16" ht="15.75" thickBot="1">
+    <row r="66" spans="1:16" ht="15.75">
       <c r="A66" s="8" t="s">
         <v>49</v>
       </c>
@@ -5984,7 +5984,7 @@
       <c r="O66" s="29"/>
       <c r="P66" s="17"/>
     </row>
-    <row r="67" spans="1:16" ht="15.75" thickBot="1">
+    <row r="67" spans="1:16" ht="15.75">
       <c r="A67" s="8" t="s">
         <v>49</v>
       </c>
@@ -6027,7 +6027,7 @@
       <c r="O67" s="29"/>
       <c r="P67" s="17"/>
     </row>
-    <row r="68" spans="1:16" ht="15.75" thickBot="1">
+    <row r="68" spans="1:16" ht="15.75">
       <c r="A68" s="8" t="s">
         <v>49</v>
       </c>
@@ -6066,7 +6066,7 @@
       <c r="O68" s="30"/>
       <c r="P68" s="17"/>
     </row>
-    <row r="69" spans="1:16" ht="15.75" thickBot="1">
+    <row r="69" spans="1:16" ht="15.75">
       <c r="A69" s="8" t="s">
         <v>174</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="O69" s="30"/>
       <c r="P69" s="17"/>
     </row>
-    <row r="70" spans="1:16" ht="15.75" thickBot="1">
+    <row r="70" spans="1:16" ht="15.75">
       <c r="A70" s="8" t="s">
         <v>174</v>
       </c>
@@ -6144,7 +6144,7 @@
       <c r="O70" s="30"/>
       <c r="P70" s="17"/>
     </row>
-    <row r="71" spans="1:16" ht="15.75" thickBot="1">
+    <row r="71" spans="1:16" ht="15.75">
       <c r="A71" s="8" t="s">
         <v>174</v>
       </c>
@@ -6185,7 +6185,7 @@
       <c r="O71" s="30"/>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:16" ht="15.75" thickBot="1">
+    <row r="72" spans="1:16" ht="15.75">
       <c r="A72" s="8" t="s">
         <v>42</v>
       </c>
@@ -6226,7 +6226,7 @@
       <c r="O72" s="31"/>
       <c r="P72" s="17"/>
     </row>
-    <row r="73" spans="1:16" ht="15.75" thickBot="1">
+    <row r="73" spans="1:16" ht="15.75">
       <c r="A73" s="8" t="s">
         <v>181</v>
       </c>
@@ -6267,7 +6267,7 @@
       <c r="O73" s="30"/>
       <c r="P73" s="26"/>
     </row>
-    <row r="74" spans="1:16" ht="15.75" thickBot="1">
+    <row r="74" spans="1:16" ht="15.75">
       <c r="A74" s="8" t="s">
         <v>181</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15.75" thickBot="1">
+    <row r="75" spans="1:16" ht="15.75">
       <c r="A75" s="8" t="s">
         <v>181</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15.75" thickBot="1">
+    <row r="76" spans="1:16" ht="15.75">
       <c r="A76" s="8" t="s">
         <v>181</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15.75" thickBot="1">
+    <row r="77" spans="1:16" ht="15.75">
       <c r="A77" s="8" t="s">
         <v>181</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15.75" thickBot="1">
+    <row r="78" spans="1:16" ht="15.75">
       <c r="A78" s="8" t="s">
         <v>181</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15.75" thickBot="1">
+    <row r="79" spans="1:16" ht="15.75">
       <c r="A79" s="8" t="s">
         <v>181</v>
       </c>
@@ -6527,7 +6527,7 @@
       <c r="O79" s="32"/>
       <c r="P79" s="17"/>
     </row>
-    <row r="80" spans="1:16" ht="15.75" thickBot="1">
+    <row r="80" spans="1:16" ht="15.75">
       <c r="A80" s="8" t="s">
         <v>181</v>
       </c>
@@ -6567,7 +6567,7 @@
       <c r="O80" s="30"/>
       <c r="P80" s="17"/>
     </row>
-    <row r="81" spans="1:16" ht="15.75" thickBot="1">
+    <row r="81" spans="1:16" ht="15.75">
       <c r="A81" s="8" t="s">
         <v>181</v>
       </c>
@@ -6606,7 +6606,7 @@
       <c r="O81" s="30"/>
       <c r="P81" s="17"/>
     </row>
-    <row r="82" spans="1:16" ht="15.75" thickBot="1">
+    <row r="82" spans="1:16" ht="15.75">
       <c r="A82" s="8" t="s">
         <v>181</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15.75" thickBot="1">
+    <row r="83" spans="1:16" ht="15.75">
       <c r="A83" s="8" t="s">
         <v>181</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15.75" thickBot="1">
+    <row r="84" spans="1:16" ht="15.75">
       <c r="A84" s="8" t="s">
         <v>181</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15.75" thickBot="1">
+    <row r="85" spans="1:16" ht="15.75">
       <c r="A85" s="8" t="s">
         <v>181</v>
       </c>
@@ -6775,7 +6775,7 @@
       <c r="O85" s="30"/>
       <c r="P85" s="17"/>
     </row>
-    <row r="86" spans="1:16" ht="15.75" thickBot="1">
+    <row r="86" spans="1:16" ht="15.75">
       <c r="A86" s="8" t="s">
         <v>181</v>
       </c>
@@ -6815,7 +6815,7 @@
       <c r="O86" s="30"/>
       <c r="P86" s="17"/>
     </row>
-    <row r="87" spans="1:16" ht="15.75" thickBot="1">
+    <row r="87" spans="1:16" ht="15.75">
       <c r="A87" s="8" t="s">
         <v>181</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15.75" thickBot="1">
+    <row r="88" spans="1:16" ht="15.75">
       <c r="A88" s="8" t="s">
         <v>181</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15.75" thickBot="1">
+    <row r="89" spans="1:16" ht="15.75">
       <c r="A89" s="8" t="s">
         <v>181</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15.75" thickBot="1">
+    <row r="90" spans="1:16" ht="15.75">
       <c r="A90" s="8" t="s">
         <v>181</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15.75" thickBot="1">
+    <row r="91" spans="1:16" ht="15.75">
       <c r="A91" s="8" t="s">
         <v>181</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15.75" thickBot="1">
+    <row r="92" spans="1:16" ht="15.75">
       <c r="A92" s="8" t="s">
         <v>181</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15.75" thickBot="1">
+    <row r="93" spans="1:16" ht="15.75">
       <c r="A93" s="8" t="s">
         <v>181</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15.75" thickBot="1">
+    <row r="94" spans="1:16" ht="15.75">
       <c r="A94" s="8" t="s">
         <v>181</v>
       </c>
